--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Form Responses 1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1522,21 +1525,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1544,285 +1549,280 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5B3F86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5B3F86"/>
+        <color rgb="FF442f65"/>
       </left>
       <right style="thin">
-        <color rgb="FF5B3F86"/>
+        <color rgb="FF5b3f86"/>
       </right>
       <top style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5B3F86"/>
+        <color rgb="FF5b3f86"/>
       </left>
       <right style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF5b3f86"/>
       </right>
       <top style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF5b3f86"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442f65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442f65"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442f65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442f65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FF442f65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFffffff"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FF442f65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </left>
       <right style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFf8f9fa"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFf8f9fa"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FF442f65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFf8f9fa"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FF442f65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </left>
       <right style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFf8f9fa"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFf8f9fa"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF442f65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFf8f9fa"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442f65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFf8f9fa"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442f65"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L151" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L151" displayName="Form_Responses" name="Form_Responses" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L151"/>
   <tableColumns count="12">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -1837,19 +1837,19 @@
     <tableColumn name="English" id="11"/>
     <tableColumn name="What Books can you tutor?" id="12"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="1" showFirstColumn="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1876,22 +1876,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1903,215 +1963,247 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="6" width="22.75"/>
-    <col customWidth="1" min="7" max="7" width="21.25"/>
-    <col customWidth="1" min="8" max="8" width="24.63"/>
-    <col customWidth="1" min="9" max="9" width="21.13"/>
-    <col customWidth="1" min="10" max="10" width="28.63"/>
-    <col customWidth="1" min="11" max="11" width="56.63"/>
-    <col customWidth="1" min="12" max="12" width="88.38"/>
-    <col customWidth="1" min="13" max="18" width="18.88"/>
+    <col min="1" max="1" style="18" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="56.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="88.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
-        <v>45868.684721909725</v>
+        <v>45868.68472222222</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
-        <v>25831.0</v>
+      <c r="C2" s="7">
+        <v>25831</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6">
-        <v>10.0</v>
+      <c r="E2" s="7">
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
@@ -2131,60 +2223,61 @@
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>45868.686772141205</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="9">
+        <v>45868.68677083333</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
-        <v>25253.0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="11">
+        <v>25253</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="11">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
-        <v>45868.68770275463</v>
+        <v>45868.68770833333</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6">
-        <v>25736.0</v>
+      <c r="C4" s="7">
+        <v>25736</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
-        <v>11.0</v>
+      <c r="E4" s="7">
+        <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>31</v>
@@ -2204,60 +2297,61 @@
       <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8">
-        <v>45868.687782175926</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="9">
+        <v>45868.68777777778</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9">
-        <v>25338.0</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11">
+        <v>25338</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="11">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="5">
-        <v>45868.688000775466</v>
+        <v>45868.687997685185</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="6">
-        <v>25714.0</v>
+      <c r="C6" s="7">
+        <v>25714</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6">
-        <v>11.0</v>
+      <c r="E6" s="7">
+        <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>31</v>
@@ -2277,63 +2371,63 @@
       <c r="K6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>45868.688031087964</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="9">
+        <v>45868.68803240741</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="9">
-        <v>25689.0</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11">
+        <v>25689</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="11">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="5">
-        <v>45868.68812925926</v>
+        <v>45868.688125</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6">
-        <v>26076.0</v>
+      <c r="C8" s="7">
+        <v>26076</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6">
-        <v>10.0</v>
+      <c r="E8" s="7">
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>56</v>
@@ -2353,63 +2447,63 @@
       <c r="K8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8">
-        <v>45868.68835033565</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="9">
+        <v>45868.68834490741</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="9">
-        <v>25526.0</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11">
+        <v>25526</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="5">
-        <v>45868.68854274305</v>
+        <v>45868.68854166667</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="6">
-        <v>25631.0</v>
+      <c r="C10" s="7">
+        <v>25631</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="6">
-        <v>11.0</v>
+      <c r="E10" s="7">
+        <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>31</v>
@@ -2423,66 +2517,67 @@
       <c r="I10" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J10" s="12"/>
       <c r="K10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8">
-        <v>45868.688675150464</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="9">
+        <v>45868.688680555555</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="9">
-        <v>25873.0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="11">
+        <v>25873</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="5">
-        <v>45868.689069201384</v>
+        <v>45868.68907407407</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="6">
-        <v>25463.0</v>
+      <c r="C12" s="7">
+        <v>25463</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="6">
-        <v>11.0</v>
+      <c r="E12" s="7">
+        <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>63</v>
@@ -2502,63 +2597,63 @@
       <c r="K12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8">
-        <v>45868.6894153125</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="9">
+        <v>45868.689409722225</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9">
-        <v>25513.0</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="11">
+        <v>25513</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="11">
+        <v>11</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="5">
-        <v>45868.690425312496</v>
+        <v>45868.69042824074</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="6">
-        <v>25325.0</v>
+      <c r="C14" s="7">
+        <v>25325</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="6">
-        <v>12.0</v>
+      <c r="E14" s="7">
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>38</v>
@@ -2578,63 +2673,63 @@
       <c r="K14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8">
-        <v>45868.69152030093</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="9">
+        <v>45868.691516203704</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="9">
-        <v>25808.0</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="11">
+        <v>25808</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="11">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
-        <v>45868.69179887732</v>
+        <v>45868.69179398148</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="6">
-        <v>25713.0</v>
+      <c r="C16" s="7">
+        <v>25713</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="6">
-        <v>11.0</v>
+      <c r="E16" s="7">
+        <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>23</v>
@@ -2654,60 +2749,61 @@
       <c r="K16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8">
-        <v>45868.69230572917</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="9">
+        <v>45868.69230324074</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="9">
-        <v>25313.0</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="11">
+        <v>25313</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="11">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="5">
-        <v>45868.69412622685</v>
+        <v>45868.694131944445</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="6">
-        <v>25231.0</v>
+      <c r="C18" s="7">
+        <v>25231</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="6">
-        <v>12.0</v>
+      <c r="E18" s="7">
+        <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>112</v>
@@ -2721,66 +2817,67 @@
       <c r="I18" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J18" s="12"/>
       <c r="K18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8">
-        <v>45868.69536915509</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="9">
+        <v>45868.69537037037</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9">
-        <v>25542.0</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="11">
+        <v>25542</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="11">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="5">
-        <v>45868.69580913194</v>
+        <v>45868.695810185185</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="6">
-        <v>25696.0</v>
+      <c r="C20" s="7">
+        <v>25696</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="6">
-        <v>11.0</v>
+      <c r="E20" s="7">
+        <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>31</v>
@@ -2800,129 +2897,131 @@
       <c r="K20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8">
-        <v>45868.6994907176</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="9">
+        <v>45868.69949074074</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="9">
-        <v>25855.0</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="11">
+        <v>25855</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="11">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22">
+      <c r="L21" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="5">
-        <v>45868.70807850694</v>
+        <v>45868.708078703705</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="6">
-        <v>25370.0</v>
+      <c r="C22" s="7">
+        <v>25370</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="6">
-        <v>12.0</v>
+      <c r="E22" s="7">
+        <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="6" t="s">
         <v>131</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8">
-        <v>45868.70828388889</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="9">
+        <v>45868.708287037036</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="9">
-        <v>25393.0</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="11">
+        <v>25393</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="11">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
-        <v>45868.709814155096</v>
+        <v>45868.709814814814</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="6">
-        <v>25546.0</v>
+      <c r="C24" s="7">
+        <v>25546</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="6">
-        <v>11.0</v>
+      <c r="E24" s="7">
+        <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>14</v>
@@ -2942,130 +3041,133 @@
       <c r="K24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8">
-        <v>45868.721243356486</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="9">
+        <v>45868.721238425926</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="9">
-        <v>25530.0</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="11">
+        <v>25530</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="11">
+        <v>11</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="5">
-        <v>45868.72135086806</v>
+        <v>45868.721354166664</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="6">
-        <v>25685.0</v>
+      <c r="C26" s="7">
+        <v>25685</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="6">
-        <v>11.0</v>
+      <c r="E26" s="7">
+        <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="G26" s="12"/>
       <c r="H26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8">
-        <v>45868.727790578705</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="9">
+        <v>45868.727789351855</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="9">
-        <v>25693.0</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="11">
+        <v>25693</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="11">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="5">
-        <v>45868.73771728009</v>
+        <v>45868.73771990741</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="6">
-        <v>25883.0</v>
+      <c r="C28" s="7">
+        <v>25883</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="6">
-        <v>10.0</v>
+      <c r="E28" s="7">
+        <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>56</v>
@@ -3085,63 +3187,63 @@
       <c r="K28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8">
-        <v>45868.74029074074</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="9">
+        <v>45868.74028935185</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="9">
-        <v>25704.0</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="11">
+        <v>25704</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="11">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="5">
-        <v>45868.74143219907</v>
+        <v>45868.741435185184</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="6">
-        <v>25151.0</v>
+      <c r="C30" s="7">
+        <v>25151</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="6">
-        <v>12.0</v>
+      <c r="E30" s="7">
+        <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>112</v>
@@ -3155,66 +3257,67 @@
       <c r="I30" s="6" t="s">
         <v>162</v>
       </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>45868.882647314815</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="9">
+        <v>45868.88265046296</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="9">
-        <v>26026.0</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="11">
+        <v>26026</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="11">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="5">
-        <v>45868.96676101851</v>
+        <v>45868.96675925926</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="6">
-        <v>25528.0</v>
+      <c r="C32" s="7">
+        <v>25528</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="6">
-        <v>11.0</v>
+      <c r="E32" s="7">
+        <v>11</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>170</v>
@@ -3234,63 +3337,63 @@
       <c r="K32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8">
-        <v>45869.052128923606</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="9">
+        <v>45869.05212962963</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="9">
-        <v>25703.0</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="11">
+        <v>25703</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="11">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="5">
-        <v>45869.37997310185</v>
+        <v>45869.37997685185</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="6">
-        <v>25547.0</v>
+      <c r="C34" s="7">
+        <v>25547</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="6">
-        <v>11.0</v>
+      <c r="E34" s="7">
+        <v>11</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>63</v>
@@ -3310,63 +3413,63 @@
       <c r="K34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8">
-        <v>45869.418879687495</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="9">
+        <v>45869.41887731481</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="9">
-        <v>25251.0</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="11">
+        <v>25251</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="11">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="5">
-        <v>45869.44268565973</v>
+        <v>45869.44268518518</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="6">
-        <v>25621.0</v>
+      <c r="C36" s="7">
+        <v>25621</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="6">
-        <v>11.0</v>
+      <c r="E36" s="7">
+        <v>11</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>189</v>
@@ -3386,63 +3489,63 @@
       <c r="K36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8">
-        <v>45869.642239305555</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="9">
+        <v>45869.642233796294</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="9">
-        <v>25337.0</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="11">
+        <v>25337</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="11">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="5">
-        <v>45869.761106412036</v>
+        <v>45869.76111111111</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="6">
-        <v>25248.0</v>
+      <c r="C38" s="7">
+        <v>25248</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="6">
-        <v>12.0</v>
+      <c r="E38" s="7">
+        <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>170</v>
@@ -3462,63 +3565,63 @@
       <c r="K38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8">
-        <v>45869.79976072916</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="9">
+        <v>45869.79975694444</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="9">
-        <v>25176.0</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="11">
+        <v>25176</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="11">
+        <v>12</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="5">
-        <v>45870.48394994213</v>
+        <v>45870.48394675926</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="6">
-        <v>25204.0</v>
+      <c r="C40" s="7">
+        <v>25204</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="6">
-        <v>12.0</v>
+      <c r="E40" s="7">
+        <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>112</v>
@@ -3538,63 +3641,63 @@
       <c r="K40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8">
-        <v>45870.60357907407</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="9">
+        <v>45870.60357638889</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="9">
-        <v>26050.0</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="11">
+        <v>26050</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="11">
+        <v>10</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="5">
-        <v>45870.816943275466</v>
+        <v>45870.81694444444</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="6">
-        <v>25942.0</v>
+      <c r="C42" s="7">
+        <v>25942</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="6">
-        <v>10.0</v>
+      <c r="E42" s="7">
+        <v>10</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>23</v>
@@ -3614,60 +3717,61 @@
       <c r="K42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8">
-        <v>45870.86369550926</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="9">
+        <v>45870.86369212963</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="9">
-        <v>25200.0</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="11">
+        <v>25200</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="11">
+        <v>12</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="J43" s="12"/>
+      <c r="K43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="5">
-        <v>45871.66797446759</v>
+        <v>45871.667974537035</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="6">
-        <v>25967.0</v>
+      <c r="C44" s="7">
+        <v>25967</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E44" s="6">
-        <v>10.0</v>
+      <c r="E44" s="7">
+        <v>10</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>74</v>
@@ -3687,63 +3791,63 @@
       <c r="K44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8">
-        <v>45871.74904130787</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="9">
+        <v>45871.74903935185</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="9">
-        <v>26053.0</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="11">
+        <v>26053</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="11">
+        <v>10</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="5">
-        <v>45871.80320326389</v>
+        <v>45871.80320601852</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="6">
-        <v>25846.0</v>
+      <c r="C46" s="7">
+        <v>25846</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="6">
-        <v>10.0</v>
+      <c r="E46" s="7">
+        <v>10</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>31</v>
@@ -3763,63 +3867,63 @@
       <c r="K46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8">
-        <v>45872.47439283565</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="9">
+        <v>45872.47439814815</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="9">
-        <v>25471.0</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="11">
+        <v>25471</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="11">
+        <v>11</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="5">
-        <v>45872.718947511574</v>
+        <v>45872.71894675926</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="6">
-        <v>25914.0</v>
+      <c r="C48" s="7">
+        <v>25914</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="6">
-        <v>10.0</v>
+      <c r="E48" s="7">
+        <v>10</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>74</v>
@@ -3839,63 +3943,63 @@
       <c r="K48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8">
-        <v>45872.73297700231</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="9">
+        <v>45872.73297453704</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="9">
-        <v>25958.0</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="11">
+        <v>25958</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="11">
+        <v>10</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="5">
-        <v>45872.82532210648</v>
+        <v>45872.825324074074</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="6">
-        <v>25294.0</v>
+      <c r="C50" s="7">
+        <v>25294</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E50" s="6">
-        <v>12.0</v>
+      <c r="E50" s="7">
+        <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>240</v>
@@ -3915,60 +4019,61 @@
       <c r="K50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8">
-        <v>45872.91292269676</v>
-      </c>
-      <c r="B51" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="9">
+        <v>45872.91292824074</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="9">
-        <v>25893.0</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="11">
+        <v>25893</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="11">
+        <v>10</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="J51" s="12"/>
+      <c r="K51" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="5">
-        <v>45873.01043623843</v>
+        <v>45873.01043981482</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="6">
-        <v>25680.0</v>
+      <c r="C52" s="7">
+        <v>25680</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="6">
-        <v>11.0</v>
+      <c r="E52" s="7">
+        <v>11</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>174</v>
@@ -3988,60 +4093,61 @@
       <c r="K52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="8">
-        <v>45873.39631585648</v>
-      </c>
-      <c r="B53" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="9">
+        <v>45873.396319444444</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="9">
-        <v>25938.0</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="11">
+        <v>25938</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="11">
+        <v>10</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="J53" s="12"/>
+      <c r="K53" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="5">
-        <v>45873.46861923611</v>
+        <v>45873.468622685185</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="6">
-        <v>25371.0</v>
+      <c r="C54" s="7">
+        <v>25371</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="6">
-        <v>12.0</v>
+      <c r="E54" s="7">
+        <v>12</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>38</v>
@@ -4055,66 +4161,67 @@
       <c r="I54" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="J54" s="12"/>
       <c r="K54" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="8">
-        <v>45873.75065449074</v>
-      </c>
-      <c r="B55" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="9">
+        <v>45873.750659722224</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="9">
-        <v>25458.0</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="11">
+        <v>25458</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E55" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="E55" s="11">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="5">
-        <v>45876.68260421296</v>
+        <v>45876.682604166665</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="6">
-        <v>25554.0</v>
+      <c r="C56" s="7">
+        <v>25554</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="6">
-        <v>11.0</v>
+      <c r="E56" s="7">
+        <v>11</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>31</v>
@@ -4128,63 +4235,65 @@
       <c r="I56" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J56" s="12"/>
       <c r="K56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8">
-        <v>45879.35835980324</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="9">
+        <v>45879.35835648148</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="9">
-        <v>25734.0</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="11">
+        <v>25734</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="E57" s="11">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="J57" s="12"/>
+      <c r="K57" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="5">
-        <v>45880.43558981481</v>
+        <v>45880.435590277775</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="6">
-        <v>25523.0</v>
+      <c r="C58" s="7">
+        <v>25523</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E58" s="6">
-        <v>11.0</v>
+      <c r="E58" s="7">
+        <v>11</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>166</v>
@@ -4198,66 +4307,67 @@
       <c r="I58" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="J58" s="12"/>
       <c r="K58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="8">
-        <v>45880.641362002316</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="9">
+        <v>45880.64136574074</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C59" s="9">
-        <v>25857.0</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="11">
+        <v>25857</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="11">
+        <v>10</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="5">
-        <v>45880.968980509264</v>
+        <v>45880.968981481485</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="6">
-        <v>25236.0</v>
+      <c r="C60" s="7">
+        <v>25236</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="6">
-        <v>12.0</v>
+      <c r="E60" s="7">
+        <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>170</v>
@@ -4277,63 +4387,63 @@
       <c r="K60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="8">
-        <v>45881.34716605324</v>
-      </c>
-      <c r="B61" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="9">
+        <v>45881.34716435185</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="9">
-        <v>26026.0</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="11">
+        <v>26026</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="11">
+        <v>10</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="5">
-        <v>45881.53690461806</v>
+        <v>45881.53690972222</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C62" s="6">
-        <v>25877.0</v>
+      <c r="C62" s="7">
+        <v>25877</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E62" s="6">
-        <v>10.0</v>
+      <c r="E62" s="7">
+        <v>10</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>63</v>
@@ -4353,63 +4463,63 @@
       <c r="K62" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8">
-        <v>45881.56771403935</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="9">
+        <v>45881.567708333336</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C63" s="9">
-        <v>25867.0</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="11">
+        <v>25867</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E63" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="11">
+        <v>10</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="5">
-        <v>45881.56828864584</v>
+        <v>45881.56828703704</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C64" s="6">
-        <v>25324.0</v>
+      <c r="C64" s="7">
+        <v>25324</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E64" s="6">
-        <v>12.0</v>
+      <c r="E64" s="7">
+        <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>38</v>
@@ -4429,63 +4539,63 @@
       <c r="K64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="8">
-        <v>45881.56831346065</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="9">
+        <v>45881.56831018518</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="9">
-        <v>25151.0</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="11">
+        <v>25151</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="11">
+        <v>12</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="5">
-        <v>45881.568355868054</v>
+        <v>45881.56835648148</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="6">
-        <v>25877.0</v>
+      <c r="C66" s="7">
+        <v>25877</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E66" s="6">
-        <v>10.0</v>
+      <c r="E66" s="7">
+        <v>10</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>63</v>
@@ -4505,63 +4615,63 @@
       <c r="K66" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="8">
-        <v>45881.56835927084</v>
-      </c>
-      <c r="B67" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="9">
+        <v>45881.56835648148</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="9">
-        <v>25714.0</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="11">
+        <v>25714</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="11">
+        <v>11</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="5">
-        <v>45881.56840355324</v>
+        <v>45881.568402777775</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C68" s="6">
-        <v>25564.0</v>
+      <c r="C68" s="7">
+        <v>25564</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E68" s="6">
-        <v>11.0</v>
+      <c r="E68" s="7">
+        <v>11</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>297</v>
@@ -4575,66 +4685,67 @@
       <c r="I68" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J68" s="12"/>
       <c r="K68" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="8">
-        <v>45881.56840907407</v>
-      </c>
-      <c r="B69" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="9">
+        <v>45881.56841435185</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C69" s="9">
-        <v>25207.0</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="11">
+        <v>25207</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E69" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="11">
+        <v>12</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="K69" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="5">
-        <v>45881.56842591435</v>
+        <v>45881.56842592593</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C70" s="6">
-        <v>25462.0</v>
+      <c r="C70" s="7">
+        <v>25462</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="6">
-        <v>11.0</v>
+      <c r="E70" s="7">
+        <v>11</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>309</v>
@@ -4654,63 +4765,63 @@
       <c r="K70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="8">
-        <v>45881.56849725694</v>
-      </c>
-      <c r="B71" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="9">
+        <v>45881.56849537037</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C71" s="9">
-        <v>25887.0</v>
-      </c>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="11">
+        <v>25887</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E71" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="11">
+        <v>10</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="5">
-        <v>45881.56850233796</v>
+        <v>45881.568506944444</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C72" s="6">
-        <v>25663.0</v>
+      <c r="C72" s="7">
+        <v>25663</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E72" s="6">
-        <v>11.0</v>
+      <c r="E72" s="7">
+        <v>11</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>315</v>
@@ -4730,63 +4841,63 @@
       <c r="K72" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="8">
-        <v>45881.56850517361</v>
-      </c>
-      <c r="B73" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="9">
+        <v>45881.568506944444</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="9">
-        <v>25914.0</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="C73" s="11">
+        <v>25914</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E73" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="11">
+        <v>10</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="5">
-        <v>45881.56854533565</v>
+        <v>45881.56854166667</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C74" s="6">
-        <v>25842.0</v>
+      <c r="C74" s="7">
+        <v>25842</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E74" s="6">
-        <v>10.0</v>
+      <c r="E74" s="7">
+        <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>63</v>
@@ -4806,63 +4917,63 @@
       <c r="K74" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="8">
-        <v>45881.56856453704</v>
-      </c>
-      <c r="B75" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="9">
+        <v>45881.568564814814</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C75" s="9">
-        <v>25269.0</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="11">
+        <v>25269</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E75" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F75" s="9" t="s">
+      <c r="E75" s="11">
+        <v>12</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="5">
-        <v>45881.568605231485</v>
+        <v>45881.56859953704</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C76" s="6">
-        <v>26025.0</v>
+      <c r="C76" s="7">
+        <v>26025</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E76" s="6">
-        <v>10.0</v>
+      <c r="E76" s="7">
+        <v>10</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>74</v>
@@ -4882,63 +4993,63 @@
       <c r="K76" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L76" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="8">
-        <v>45881.568625</v>
-      </c>
-      <c r="B77" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="9">
+        <v>45881.56862268518</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="9">
-        <v>25294.0</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="11">
+        <v>25294</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E77" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="E77" s="11">
+        <v>12</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="5">
-        <v>45881.56871547454</v>
+        <v>45881.568715277775</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C78" s="6">
-        <v>25164.0</v>
+      <c r="C78" s="7">
+        <v>25164</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E78" s="6">
-        <v>12.0</v>
+      <c r="E78" s="7">
+        <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>315</v>
@@ -4958,60 +5069,61 @@
       <c r="K78" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L78" s="7" t="s">
+      <c r="L78" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="8">
-        <v>45881.56871628472</v>
-      </c>
-      <c r="B79" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="9">
+        <v>45881.568715277775</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C79" s="9">
-        <v>25335.0</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="11">
+        <v>25335</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="E79" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="E79" s="11">
+        <v>12</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="J79" s="12"/>
+      <c r="K79" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="5">
-        <v>45881.56874350694</v>
+        <v>45881.56873842593</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C80" s="6">
-        <v>25579.0</v>
+      <c r="C80" s="7">
+        <v>25579</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E80" s="6">
-        <v>11.0</v>
+      <c r="E80" s="7">
+        <v>11</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>63</v>
@@ -5031,63 +5143,63 @@
       <c r="K80" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L80" s="7" t="s">
+      <c r="L80" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="8">
-        <v>45881.56875569445</v>
-      </c>
-      <c r="B81" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="9">
+        <v>45881.56875</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C81" s="9">
-        <v>25263.0</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="C81" s="11">
+        <v>25263</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E81" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="11">
+        <v>12</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="K81" s="9" t="s">
+      <c r="K81" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="5">
-        <v>45881.5688353588</v>
+        <v>45881.56883101852</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="6">
-        <v>25325.0</v>
+      <c r="C82" s="7">
+        <v>25325</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E82" s="6">
-        <v>12.0</v>
+      <c r="E82" s="7">
+        <v>12</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>38</v>
@@ -5107,60 +5219,61 @@
       <c r="K82" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="8">
-        <v>45881.56886318287</v>
-      </c>
-      <c r="B83" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="9">
+        <v>45881.56886574074</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="9">
-        <v>25253.0</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="C83" s="11">
+        <v>25253</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E83" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F83" s="9" t="s">
+      <c r="E83" s="11">
+        <v>12</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K83" s="9" t="s">
+      <c r="J83" s="12"/>
+      <c r="K83" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="5">
-        <v>45881.56892130787</v>
+        <v>45881.568923611114</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C84" s="6">
-        <v>26011.0</v>
+      <c r="C84" s="7">
+        <v>26011</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E84" s="6">
-        <v>10.0</v>
+      <c r="E84" s="7">
+        <v>10</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>74</v>
@@ -5180,63 +5293,63 @@
       <c r="K84" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="8">
-        <v>45881.56892445602</v>
-      </c>
-      <c r="B85" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="9">
+        <v>45881.568923611114</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C85" s="9">
-        <v>25686.0</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="11">
+        <v>25686</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E85" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="11">
+        <v>11</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K85" s="9" t="s">
+      <c r="K85" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="5">
-        <v>45881.56893354167</v>
+        <v>45881.56893518518</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C86" s="6">
-        <v>25214.0</v>
+      <c r="C86" s="7">
+        <v>25214</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E86" s="6">
-        <v>12.0</v>
+      <c r="E86" s="7">
+        <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>346</v>
@@ -5256,63 +5369,63 @@
       <c r="K86" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="L86" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="8">
-        <v>45881.56903642361</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="9">
+        <v>45881.56903935185</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="9">
-        <v>25276.0</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="11">
+        <v>25276</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E87" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F87" s="9" t="s">
+      <c r="E87" s="11">
+        <v>12</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="5">
-        <v>45881.56903741898</v>
+        <v>45881.56903935185</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="6">
-        <v>25393.0</v>
+      <c r="C88" s="7">
+        <v>25393</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="6">
-        <v>12.0</v>
+      <c r="E88" s="7">
+        <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>353</v>
@@ -5332,63 +5445,63 @@
       <c r="K88" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="8">
-        <v>45881.56903804398</v>
-      </c>
-      <c r="B89" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="9">
+        <v>45881.56903935185</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C89" s="9">
-        <v>25741.0</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="C89" s="11">
+        <v>25741</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E89" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F89" s="9" t="s">
+      <c r="E89" s="11">
+        <v>11</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="5">
-        <v>45881.56910178241</v>
+        <v>45881.56909722222</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="6">
-        <v>25689.0</v>
+      <c r="C90" s="7">
+        <v>25689</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="6">
-        <v>11.0</v>
+      <c r="E90" s="7">
+        <v>11</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>38</v>
@@ -5408,60 +5521,61 @@
       <c r="K90" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L90" s="7" t="s">
+      <c r="L90" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="8">
-        <v>45881.56912825232</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="9">
+        <v>45881.569131944445</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C91" s="9">
-        <v>25357.0</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="11">
+        <v>25357</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E91" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F91" s="9" t="s">
+      <c r="E91" s="11">
+        <v>12</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K91" s="9" t="s">
+      <c r="K91" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="L91" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="5">
-        <v>45881.56917645833</v>
+        <v>45881.56917824074</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C92" s="6">
-        <v>25625.0</v>
+      <c r="C92" s="7">
+        <v>25625</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E92" s="6">
-        <v>11.0</v>
+      <c r="E92" s="7">
+        <v>11</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>364</v>
@@ -5475,66 +5589,67 @@
       <c r="I92" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J92" s="12"/>
       <c r="K92" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L92" s="7" t="s">
+      <c r="L92" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="8">
-        <v>45881.56918805555</v>
-      </c>
-      <c r="B93" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="9">
+        <v>45881.569189814814</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C93" s="9">
-        <v>26076.0</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="11">
+        <v>26076</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E93" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F93" s="9" t="s">
+      <c r="E93" s="11">
+        <v>10</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="5">
-        <v>45881.56921890046</v>
+        <v>45881.56922453704</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C94" s="6">
-        <v>25603.0</v>
+      <c r="C94" s="7">
+        <v>25603</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E94" s="6">
-        <v>11.0</v>
+      <c r="E94" s="7">
+        <v>11</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>63</v>
@@ -5542,182 +5657,197 @@
       <c r="G94" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="8">
-        <v>45881.569264791666</v>
-      </c>
-      <c r="B95" s="9" t="s">
+      <c r="L94" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="9">
+        <v>45881.56925925926</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C95" s="9">
-        <v>25731.0</v>
-      </c>
-      <c r="D95" s="9" t="s">
+      <c r="C95" s="11">
+        <v>25731</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E95" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F95" s="9" t="s">
+      <c r="E95" s="11">
+        <v>11</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K95" s="9" t="s">
+      <c r="K95" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="L95" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="5">
-        <v>45881.569275208334</v>
+        <v>45881.56927083333</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="6">
-        <v>26020.0</v>
+      <c r="C96" s="7">
+        <v>26020</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E96" s="6">
-        <v>10.0</v>
+      <c r="E96" s="7">
+        <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>374</v>
       </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
       <c r="K96" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="8">
-        <v>45881.56929421297</v>
-      </c>
-      <c r="B97" s="9" t="s">
+      <c r="L96" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="9">
+        <v>45881.56929398148</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="9">
-        <v>25458.0</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="C97" s="11">
+        <v>25458</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E97" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="11">
+        <v>11</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K97" s="9" t="s">
+      <c r="K97" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="5">
-        <v>45881.569350624995</v>
+        <v>45881.56935185185</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="6">
-        <v>25568.0</v>
+      <c r="C98" s="7">
+        <v>25568</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E98" s="6">
-        <v>11.0</v>
-      </c>
+      <c r="E98" s="7">
+        <v>11</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
       <c r="K98" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="8">
-        <v>45881.56937518519</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="L98" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="9">
+        <v>45881.569375</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C99" s="9">
-        <v>25483.0</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="11">
+        <v>25483</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E99" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="11">
+        <v>11</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K99" s="9" t="s">
+      <c r="K99" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="5">
-        <v>45881.5694028588</v>
+        <v>45881.569398148145</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="6">
-        <v>25938.0</v>
+      <c r="C100" s="7">
+        <v>25938</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="6">
-        <v>10.0</v>
+      <c r="E100" s="7">
+        <v>10</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>23</v>
@@ -5737,60 +5867,61 @@
       <c r="K100" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L100" s="7" t="s">
+      <c r="L100" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="8">
-        <v>45881.5694214699</v>
-      </c>
-      <c r="B101" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="9">
+        <v>45881.5694212963</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C101" s="9">
-        <v>25693.0</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="11">
+        <v>25693</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E101" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="11">
+        <v>11</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="H101" s="12"/>
+      <c r="I101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="K101" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="5">
-        <v>45881.56942966435</v>
+        <v>45881.56943287037</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C102" s="6">
-        <v>25942.0</v>
+      <c r="C102" s="7">
+        <v>25942</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="6">
-        <v>10.0</v>
+      <c r="E102" s="7">
+        <v>10</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>14</v>
@@ -5810,63 +5941,63 @@
       <c r="K102" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L102" s="7" t="s">
+      <c r="L102" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="8">
-        <v>45881.56943505787</v>
-      </c>
-      <c r="B103" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="9">
+        <v>45881.56943287037</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="9">
-        <v>25704.0</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="C103" s="11">
+        <v>25704</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E103" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F103" s="9" t="s">
+      <c r="E103" s="11">
+        <v>11</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="I103" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="J103" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K103" s="9" t="s">
+      <c r="K103" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="5">
-        <v>45881.56944065972</v>
+        <v>45881.569444444445</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C104" s="6">
-        <v>25653.0</v>
+      <c r="C104" s="7">
+        <v>25653</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E104" s="6">
-        <v>11.0</v>
+      <c r="E104" s="7">
+        <v>11</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>174</v>
@@ -5880,66 +6011,67 @@
       <c r="I104" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="J104" s="12"/>
       <c r="K104" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L104" s="7" t="s">
+      <c r="L104" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="8">
-        <v>45881.56945063657</v>
-      </c>
-      <c r="B105" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="9">
+        <v>45881.56945601852</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C105" s="9">
-        <v>26002.0</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="11">
+        <v>26002</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="E105" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="11">
+        <v>10</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J105" s="9" t="s">
+      <c r="J105" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K105" s="9" t="s">
+      <c r="K105" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="5">
-        <v>45881.56948111111</v>
+        <v>45881.56947916667</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C106" s="6">
-        <v>25598.0</v>
+      <c r="C106" s="7">
+        <v>25598</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E106" s="6">
-        <v>11.0</v>
+      <c r="E106" s="7">
+        <v>11</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>38</v>
@@ -5959,60 +6091,61 @@
       <c r="K106" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L106" s="7" t="s">
+      <c r="L106" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="8">
-        <v>45881.569515208335</v>
-      </c>
-      <c r="B107" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="9">
+        <v>45881.56951388889</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="9">
-        <v>26055.0</v>
-      </c>
-      <c r="D107" s="9" t="s">
+      <c r="C107" s="11">
+        <v>26055</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E107" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F107" s="9" t="s">
+      <c r="E107" s="11">
+        <v>11</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J107" s="9" t="s">
+      <c r="J107" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="K107" s="9" t="s">
+      <c r="K107" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="L107" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="5">
-        <v>45881.56953898148</v>
+        <v>45881.56953703704</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C108" s="6">
-        <v>25326.0</v>
+      <c r="C108" s="7">
+        <v>25326</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E108" s="6">
-        <v>12.0</v>
+      <c r="E108" s="7">
+        <v>12</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>38</v>
@@ -6032,60 +6165,61 @@
       <c r="K108" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="L108" s="7" t="s">
+      <c r="L108" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="8">
-        <v>45881.56957226852</v>
-      </c>
-      <c r="B109" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="9">
+        <v>45881.56957175926</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="9">
-        <v>25600.0</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="C109" s="11">
+        <v>25600</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E109" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="E109" s="11">
+        <v>11</v>
+      </c>
+      <c r="F109" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I109" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="J109" s="12"/>
+      <c r="K109" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="13" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="5">
-        <v>45881.56961586805</v>
+        <v>45881.56961805555</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C110" s="6">
-        <v>25371.0</v>
+      <c r="C110" s="7">
+        <v>25371</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="6">
-        <v>12.0</v>
+      <c r="E110" s="7">
+        <v>12</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>38</v>
@@ -6099,63 +6233,65 @@
       <c r="I110" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="J110" s="12"/>
       <c r="K110" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="L110" s="7" t="s">
+      <c r="L110" s="8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="8">
-        <v>45881.56963248843</v>
-      </c>
-      <c r="B111" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="9">
+        <v>45881.56962962963</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C111" s="9">
-        <v>25737.0</v>
-      </c>
-      <c r="D111" s="9" t="s">
+      <c r="C111" s="11">
+        <v>25737</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E111" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F111" s="9" t="s">
+      <c r="E111" s="11">
+        <v>12</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I111" s="9" t="s">
+      <c r="I111" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="J111" s="12"/>
+      <c r="K111" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="112">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="5">
-        <v>45881.56963708333</v>
+        <v>45881.56964120371</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C112" s="6">
-        <v>25228.0</v>
+      <c r="C112" s="7">
+        <v>25228</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E112" s="6">
-        <v>12.0</v>
+      <c r="E112" s="7">
+        <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>417</v>
@@ -6175,63 +6311,63 @@
       <c r="K112" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="7" t="s">
+      <c r="L112" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="8">
-        <v>45881.569639803245</v>
-      </c>
-      <c r="B113" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="9">
+        <v>45881.56964120371</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C113" s="9">
-        <v>25236.0</v>
-      </c>
-      <c r="D113" s="9" t="s">
+      <c r="C113" s="11">
+        <v>25236</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E113" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F113" s="9" t="s">
+      <c r="E113" s="11">
+        <v>12</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="J113" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="5">
-        <v>45881.56973765046</v>
+        <v>45881.5697337963</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C114" s="6">
-        <v>26050.0</v>
+      <c r="C114" s="7">
+        <v>26050</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E114" s="6">
-        <v>10.0</v>
+      <c r="E114" s="7">
+        <v>10</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>63</v>
@@ -6251,63 +6387,63 @@
       <c r="K114" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L114" s="7" t="s">
+      <c r="L114" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="8">
-        <v>45881.569802060185</v>
-      </c>
-      <c r="B115" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="9">
+        <v>45881.56980324074</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="9">
-        <v>25893.0</v>
-      </c>
-      <c r="D115" s="9" t="s">
+      <c r="C115" s="11">
+        <v>25893</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E115" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="E115" s="11">
+        <v>10</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J115" s="9" t="s">
+      <c r="J115" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K115" s="9" t="s">
+      <c r="K115" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="5">
-        <v>45881.569829375</v>
+        <v>45881.56982638889</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C116" s="6">
-        <v>25254.0</v>
+      <c r="C116" s="7">
+        <v>25254</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E116" s="6">
-        <v>12.0</v>
+      <c r="E116" s="7">
+        <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>423</v>
@@ -6321,63 +6457,65 @@
       <c r="I116" s="6" t="s">
         <v>162</v>
       </c>
+      <c r="J116" s="12"/>
       <c r="K116" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L116" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="8">
-        <v>45881.56988767361</v>
-      </c>
-      <c r="B117" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="9">
+        <v>45881.56988425926</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C117" s="9">
-        <v>25368.0</v>
-      </c>
-      <c r="D117" s="9" t="s">
+      <c r="C117" s="11">
+        <v>25368</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E117" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F117" s="9" t="s">
+      <c r="E117" s="11">
+        <v>12</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="I117" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="J117" s="12"/>
+      <c r="K117" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="5">
-        <v>45881.569902083334</v>
+        <v>45881.56990740741</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="6">
-        <v>25958.0</v>
+      <c r="C118" s="7">
+        <v>25958</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E118" s="6">
-        <v>10.0</v>
+      <c r="E118" s="7">
+        <v>10</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>74</v>
@@ -6397,63 +6535,63 @@
       <c r="K118" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L118" s="7" t="s">
+      <c r="L118" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="8">
-        <v>45881.569903310185</v>
-      </c>
-      <c r="B119" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="9">
+        <v>45881.56990740741</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="9">
-        <v>25680.0</v>
-      </c>
-      <c r="D119" s="9" t="s">
+      <c r="C119" s="11">
+        <v>25680</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="E119" s="11">
+        <v>11</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I119" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J119" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="K119" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="13" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="5">
-        <v>45881.56990998842</v>
+        <v>45881.56990740741</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="6">
-        <v>25463.0</v>
+      <c r="C120" s="7">
+        <v>25463</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E120" s="6">
-        <v>11.0</v>
+      <c r="E120" s="7">
+        <v>11</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>174</v>
@@ -6473,63 +6611,63 @@
       <c r="K120" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L120" s="7" t="s">
+      <c r="L120" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="8">
-        <v>45881.56993518518</v>
-      </c>
-      <c r="B121" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="9">
+        <v>45881.56993055555</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C121" s="9">
-        <v>25651.0</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="C121" s="11">
+        <v>25651</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="E121" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F121" s="9" t="s">
+      <c r="E121" s="11">
+        <v>11</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="I121" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="5">
-        <v>45881.56997237269</v>
+        <v>45881.56997685185</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C122" s="6">
-        <v>25656.0</v>
+      <c r="C122" s="7">
+        <v>25656</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E122" s="6">
-        <v>11.0</v>
+      <c r="E122" s="7">
+        <v>11</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>63</v>
@@ -6549,63 +6687,63 @@
       <c r="K122" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L122" s="7" t="s">
+      <c r="L122" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="8">
-        <v>45881.57002304398</v>
-      </c>
-      <c r="B123" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="9">
+        <v>45881.570023148146</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C123" s="9">
-        <v>25857.0</v>
-      </c>
-      <c r="D123" s="9" t="s">
+      <c r="C123" s="11">
+        <v>25857</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E123" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="E123" s="11">
+        <v>10</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="9" t="s">
+      <c r="I123" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K123" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="5">
-        <v>45881.57005327546</v>
+        <v>45881.57005787037</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C124" s="6">
-        <v>26026.0</v>
+      <c r="C124" s="7">
+        <v>26026</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E124" s="6">
-        <v>10.0</v>
+      <c r="E124" s="7">
+        <v>10</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>166</v>
@@ -6625,63 +6763,63 @@
       <c r="K124" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L124" s="7" t="s">
+      <c r="L124" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="8">
-        <v>45881.57006238426</v>
-      </c>
-      <c r="B125" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="9">
+        <v>45881.57005787037</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C125" s="9">
-        <v>25878.0</v>
-      </c>
-      <c r="D125" s="9" t="s">
+      <c r="C125" s="11">
+        <v>25878</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="E125" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="E125" s="11">
+        <v>10</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I125" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J125" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K125" s="9" t="s">
+      <c r="K125" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L125" s="10" t="s">
+      <c r="L125" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="5">
-        <v>45881.5701524537</v>
+        <v>45881.57015046296</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C126" s="6">
-        <v>25524.0</v>
+      <c r="C126" s="7">
+        <v>25524</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E126" s="6">
-        <v>11.0</v>
+      <c r="E126" s="7">
+        <v>11</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>174</v>
@@ -6701,63 +6839,63 @@
       <c r="K126" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L126" s="7" t="s">
+      <c r="L126" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="8">
-        <v>45881.570295868056</v>
-      </c>
-      <c r="B127" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="9">
+        <v>45881.57030092592</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C127" s="9">
-        <v>25588.0</v>
-      </c>
-      <c r="D127" s="9" t="s">
+      <c r="C127" s="11">
+        <v>25588</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="E127" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F127" s="9" t="s">
+      <c r="E127" s="11">
+        <v>11</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I127" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J127" s="9" t="s">
+      <c r="J127" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K127" s="9" t="s">
+      <c r="K127" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L127" s="10" t="s">
+      <c r="L127" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="5">
-        <v>45881.570305</v>
+        <v>45881.57030092592</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C128" s="6">
-        <v>25577.0</v>
+      <c r="C128" s="7">
+        <v>25577</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E128" s="6">
-        <v>11.0</v>
+      <c r="E128" s="7">
+        <v>11</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>14</v>
@@ -6777,60 +6915,61 @@
       <c r="K128" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L128" s="7" t="s">
+      <c r="L128" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="8">
-        <v>45881.57036736111</v>
-      </c>
-      <c r="B129" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="9">
+        <v>45881.57037037037</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C129" s="9">
-        <v>25808.0</v>
-      </c>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="11">
+        <v>25808</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E129" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F129" s="9" t="s">
+      <c r="E129" s="11">
+        <v>10</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="J129" s="12"/>
+      <c r="K129" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="5">
-        <v>45881.570380289355</v>
+        <v>45881.570381944446</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C130" s="6">
-        <v>25251.0</v>
+      <c r="C130" s="7">
+        <v>25251</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E130" s="6">
-        <v>12.0</v>
+      <c r="E130" s="7">
+        <v>12</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>450</v>
@@ -6850,63 +6989,63 @@
       <c r="K130" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L130" s="7" t="s">
+      <c r="L130" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="8">
-        <v>45881.57045068287</v>
-      </c>
-      <c r="B131" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="9">
+        <v>45881.57045138889</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C131" s="9">
-        <v>25552.0</v>
-      </c>
-      <c r="D131" s="9" t="s">
+      <c r="C131" s="11">
+        <v>25552</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E131" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F131" s="9" t="s">
+      <c r="E131" s="11">
+        <v>11</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H131" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J131" s="9" t="s">
+      <c r="J131" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K131" s="9" t="s">
+      <c r="K131" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L131" s="10" t="s">
+      <c r="L131" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="5">
-        <v>45881.57055289352</v>
+        <v>45881.570555555554</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="6">
-        <v>25160.0</v>
+      <c r="C132" s="7">
+        <v>25160</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E132" s="6">
-        <v>12.0</v>
+      <c r="E132" s="7">
+        <v>12</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>166</v>
@@ -6926,63 +7065,63 @@
       <c r="K132" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L132" s="7" t="s">
+      <c r="L132" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="8">
-        <v>45881.57057813657</v>
-      </c>
-      <c r="B133" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="9">
+        <v>45881.5705787037</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="9">
-        <v>25709.0</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="C133" s="11">
+        <v>25709</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="E133" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F133" s="9" t="s">
+      <c r="E133" s="11">
+        <v>11</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I133" s="9" t="s">
+      <c r="I133" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J133" s="9" t="s">
+      <c r="J133" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K133" s="9" t="s">
+      <c r="K133" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L133" s="10" t="s">
+      <c r="L133" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="5">
-        <v>45881.57066960648</v>
+        <v>45881.57067129629</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C134" s="6">
-        <v>26053.0</v>
+      <c r="C134" s="7">
+        <v>26053</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E134" s="6">
-        <v>10.0</v>
+      <c r="E134" s="7">
+        <v>10</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>226</v>
@@ -7002,63 +7141,63 @@
       <c r="K134" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="L134" s="7" t="s">
+      <c r="L134" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="8">
-        <v>45881.57076418982</v>
-      </c>
-      <c r="B135" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="9">
+        <v>45881.570763888885</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C135" s="9">
-        <v>25299.0</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="C135" s="11">
+        <v>25299</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E135" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F135" s="9" t="s">
+      <c r="E135" s="11">
+        <v>12</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="I135" s="9" t="s">
+      <c r="I135" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J135" s="9" t="s">
+      <c r="J135" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="K135" s="9" t="s">
+      <c r="K135" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L135" s="10" t="s">
+      <c r="L135" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="5">
-        <v>45881.57111752315</v>
+        <v>45881.571122685185</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C136" s="6">
-        <v>26021.0</v>
+      <c r="C136" s="7">
+        <v>26021</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E136" s="6">
-        <v>10.0</v>
+      <c r="E136" s="7">
+        <v>10</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>374</v>
@@ -7078,54 +7217,57 @@
       <c r="K136" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L136" s="7" t="s">
+      <c r="L136" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="8">
-        <v>45881.571341076386</v>
-      </c>
-      <c r="B137" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="9">
+        <v>45881.57134259259</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C137" s="9">
-        <v>25425.0</v>
-      </c>
-      <c r="D137" s="9" t="s">
+      <c r="C137" s="11">
+        <v>25425</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E137" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F137" s="9" t="s">
+      <c r="E137" s="11">
+        <v>12</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K137" s="9" t="s">
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L137" s="10" t="s">
+      <c r="L137" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="5">
-        <v>45881.57142788194</v>
+        <v>45881.57142361111</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C138" s="6">
-        <v>25471.0</v>
+      <c r="C138" s="7">
+        <v>25471</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E138" s="6">
-        <v>11.0</v>
+      <c r="E138" s="7">
+        <v>11</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>174</v>
@@ -7145,60 +7287,61 @@
       <c r="K138" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L138" s="7" t="s">
+      <c r="L138" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="8">
-        <v>45881.57144384259</v>
-      </c>
-      <c r="B139" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="9">
+        <v>45881.57144675926</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C139" s="9">
-        <v>26036.0</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="11">
+        <v>26036</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E139" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F139" s="9" t="s">
+      <c r="E139" s="11">
+        <v>10</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H139" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I139" s="9" t="s">
+      <c r="I139" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K139" s="9" t="s">
+      <c r="J139" s="12"/>
+      <c r="K139" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L139" s="10" t="s">
+      <c r="L139" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="5">
-        <v>45881.571624178236</v>
+        <v>45881.57162037037</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C140" s="6">
-        <v>25313.0</v>
+      <c r="C140" s="7">
+        <v>25313</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E140" s="6">
-        <v>12.0</v>
+      <c r="E140" s="7">
+        <v>12</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>170</v>
@@ -7212,63 +7355,65 @@
       <c r="I140" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="J140" s="12"/>
       <c r="K140" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L140" s="7" t="s">
+      <c r="L140" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="8">
-        <v>45881.57165358796</v>
-      </c>
-      <c r="B141" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="9">
+        <v>45881.57165509259</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C141" s="9">
-        <v>25502.0</v>
-      </c>
-      <c r="D141" s="9" t="s">
+      <c r="C141" s="11">
+        <v>25502</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="E141" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="E141" s="11">
+        <v>11</v>
+      </c>
+      <c r="F141" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="G141" s="12"/>
+      <c r="H141" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I141" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J141" s="9" t="s">
+      <c r="J141" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K141" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L141" s="10" t="s">
+      <c r="L141" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="5">
-        <v>45881.57173548611</v>
+        <v>45881.57173611111</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C142" s="6">
-        <v>25849.0</v>
+      <c r="C142" s="7">
+        <v>25849</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E142" s="6">
-        <v>10.0</v>
+      <c r="E142" s="7">
+        <v>10</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>74</v>
@@ -7288,63 +7433,63 @@
       <c r="K142" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L142" s="7" t="s">
+      <c r="L142" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="8">
-        <v>45881.571817199074</v>
-      </c>
-      <c r="B143" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="9">
+        <v>45881.57181712963</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C143" s="9">
-        <v>25870.0</v>
-      </c>
-      <c r="D143" s="9" t="s">
+      <c r="C143" s="11">
+        <v>25870</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="E143" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="F143" s="9" t="s">
+      <c r="E143" s="11">
+        <v>10</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="H143" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I143" s="9" t="s">
+      <c r="I143" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J143" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K143" s="9" t="s">
+      <c r="K143" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L143" s="10" t="s">
+      <c r="L143" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="144">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="5">
-        <v>45881.57187789352</v>
+        <v>45881.571875</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C144" s="6">
-        <v>25924.0</v>
+      <c r="C144" s="7">
+        <v>25924</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E144" s="6">
-        <v>10.0</v>
+      <c r="E144" s="7">
+        <v>10</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>482</v>
@@ -7364,127 +7509,131 @@
       <c r="K144" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L144" s="7" t="s">
+      <c r="L144" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="8">
-        <v>45881.5721944213</v>
-      </c>
-      <c r="B145" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="9">
+        <v>45881.57219907407</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C145" s="9">
-        <v>25713.0</v>
-      </c>
-      <c r="D145" s="9" t="s">
+      <c r="C145" s="11">
+        <v>25713</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E145" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="E145" s="11">
+        <v>11</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H145" s="9" t="s">
+      <c r="H145" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I145" s="9" t="s">
+      <c r="I145" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J145" s="9" t="s">
+      <c r="J145" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K145" s="9" t="s">
+      <c r="K145" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L145" s="10" t="s">
+      <c r="L145" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="5">
-        <v>45881.572800208334</v>
+        <v>45881.572800925926</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C146" s="6">
-        <v>25279.0</v>
+      <c r="C146" s="7">
+        <v>25279</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="E146" s="6">
-        <v>12.0</v>
+      <c r="E146" s="7">
+        <v>12</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="G146" s="12"/>
       <c r="H146" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
       <c r="K146" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L146" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="8">
-        <v>45881.573427048614</v>
-      </c>
-      <c r="B147" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="9">
+        <v>45881.573425925926</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C147" s="9">
-        <v>25330.0</v>
-      </c>
-      <c r="D147" s="9" t="s">
+      <c r="C147" s="11">
+        <v>25330</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E147" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F147" s="9" t="s">
+      <c r="E147" s="11">
+        <v>12</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H147" s="9" t="s">
+      <c r="H147" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J147" s="9" t="s">
+      <c r="I147" s="12"/>
+      <c r="J147" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K147" s="9" t="s">
+      <c r="K147" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L147" s="10" t="s">
+      <c r="L147" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="148">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="5">
-        <v>45881.574726921295</v>
+        <v>45881.57472222222</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C148" s="6">
-        <v>25383.0</v>
+      <c r="C148" s="7">
+        <v>25383</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="E148" s="6">
-        <v>12.0</v>
+      <c r="E148" s="7">
+        <v>12</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>492</v>
@@ -7504,60 +7653,61 @@
       <c r="K148" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="L148" s="7" t="s">
+      <c r="L148" s="8" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="8">
-        <v>45881.57534891204</v>
-      </c>
-      <c r="B149" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="9">
+        <v>45881.57534722222</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C149" s="9">
-        <v>25245.0</v>
-      </c>
-      <c r="D149" s="9" t="s">
+      <c r="C149" s="11">
+        <v>25245</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E149" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F149" s="9" t="s">
+      <c r="E149" s="11">
+        <v>12</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H149" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I149" s="9" t="s">
+      <c r="I149" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K149" s="9" t="s">
+      <c r="J149" s="12"/>
+      <c r="K149" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="L149" s="10" t="s">
+      <c r="L149" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="150">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="5">
-        <v>45881.586467939815</v>
+        <v>45881.58646990741</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C150" s="6">
-        <v>25231.0</v>
+      <c r="C150" s="7">
+        <v>25231</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E150" s="6">
-        <v>12.0</v>
+      <c r="E150" s="7">
+        <v>12</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>112</v>
@@ -7577,52 +7727,52 @@
       <c r="K150" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L150" s="7" t="s">
+      <c r="L150" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="11">
-        <v>45881.60215975695</v>
-      </c>
-      <c r="B151" s="12" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="14">
+        <v>45881.602164351854</v>
+      </c>
+      <c r="B151" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C151" s="12">
-        <v>25702.0</v>
-      </c>
-      <c r="D151" s="12" t="s">
+      <c r="C151" s="16">
+        <v>25702</v>
+      </c>
+      <c r="D151" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="E151" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="F151" s="12" t="s">
+      <c r="E151" s="16">
+        <v>11</v>
+      </c>
+      <c r="F151" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="G151" s="12" t="s">
+      <c r="G151" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="12" t="s">
+      <c r="H151" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I151" s="12" t="s">
+      <c r="I151" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J151" s="12" t="s">
+      <c r="J151" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K151" s="12" t="s">
+      <c r="K151" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L151" s="13" t="s">
+      <c r="L151" s="17" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -1780,7 +1780,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1798,10 +1798,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2189,7 +2189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>45868.68472222222</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
@@ -2227,7 +2227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="9">
         <v>45868.68677083333</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>45868.68770833333</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="9">
         <v>45868.68777777778</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>45868.687997685185</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="9">
         <v>45868.68803240741</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>45868.688125</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9">
         <v>45868.68834490741</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>45868.68854166667</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="9">
         <v>45868.688680555555</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>45868.68907407407</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="9">
         <v>45868.689409722225</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>45868.69042824074</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="9">
         <v>45868.691516203704</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>45868.69179398148</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="9">
         <v>45868.69230324074</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>45868.694131944445</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="9">
         <v>45868.69537037037</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>45868.695810185185</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="9">
         <v>45868.69949074074</v>
       </c>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>45868.708078703705</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="9">
         <v>45868.708287037036</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5">
         <v>45868.709814814814</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="9">
         <v>45868.721238425926</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>45868.721354166664</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="9">
         <v>45868.727789351855</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
         <v>45868.73771990741</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="9">
         <v>45868.74028935185</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5">
         <v>45868.741435185184</v>
       </c>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="503">
   <si>
     <t>Timestamp</t>
   </si>
@@ -685,7 +685,7 @@
     <t>25967@dlshs.org</t>
   </si>
   <si>
-    <t>Liam St John</t>
+    <t>Liam St. John</t>
   </si>
   <si>
     <t>26053@dlshs.org</t>
@@ -733,267 +733,270 @@
     <t>25294@dlshs.org</t>
   </si>
   <si>
+    <t>Ernest Lizardo</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 2 W/ Trig, Geometry H</t>
+  </si>
+  <si>
+    <t>Freshman STEM, AP Biology, Chemistry H</t>
+  </si>
+  <si>
+    <t>World History, AP United States History</t>
+  </si>
+  <si>
+    <t>Spanish 1, Spanish 2 H, Spanish 3</t>
+  </si>
+  <si>
+    <t>Macbeth, Black Boy, Farenheit 451, Ender's Game, Catcher in the Rye, Julius Caesar, Lord of the Flies, The Great Gatsby</t>
+  </si>
+  <si>
+    <t>25893@dlshs.org</t>
+  </si>
+  <si>
+    <t>Anthony Accardo</t>
+  </si>
+  <si>
+    <t>ASL 1</t>
+  </si>
+  <si>
+    <t>25680@dlshs.org</t>
+  </si>
+  <si>
+    <t>Matthew Gillette</t>
+  </si>
+  <si>
+    <t>World History, World History H, United States History, AP United States History, AP Psychology</t>
+  </si>
+  <si>
+    <t>First Aid/Health, AP Computer Science Principles</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Cannery Row, Great Expectations, Julius Caesar, Antigone, Lord of the Flies</t>
+  </si>
+  <si>
+    <t>25938@dlshs.org</t>
+  </si>
+  <si>
+    <t>Harry Stonerock</t>
+  </si>
+  <si>
+    <t>25371@dlshs.org</t>
+  </si>
+  <si>
+    <t>Jack Chlebicki</t>
+  </si>
+  <si>
+    <t>World History H, AP United States History, AP European History</t>
+  </si>
+  <si>
+    <t>Italian 1, Italian 2, Italian 2 H, Italian 3</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Lord of the Flies, Moby Dick</t>
+  </si>
+  <si>
+    <t>25458@dlshs.org</t>
+  </si>
+  <si>
+    <t>Ethan Crossett</t>
+  </si>
+  <si>
+    <t>Freshman STEM, Biology, AP Biology</t>
+  </si>
+  <si>
+    <t>French 1, French 2, French 3</t>
+  </si>
+  <si>
+    <t>Macbeth, Black Boy, Farenheit 451, Ender's Game, Julius Caesar, Antigone, Lord of the Flies, Cat's Cradle</t>
+  </si>
+  <si>
+    <t>25554@dlshs.org</t>
+  </si>
+  <si>
+    <t>Carver Dixon</t>
+  </si>
+  <si>
+    <t>World History H, AP Human Geography</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Ender's Game, Julius Caesar</t>
+  </si>
+  <si>
+    <t>25734@dlshs.org</t>
+  </si>
+  <si>
+    <t>Clint Lundin</t>
+  </si>
+  <si>
+    <t>25523@dlshs.org</t>
+  </si>
+  <si>
+    <t>Emmanuel Di Giusto</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Julius Caesar, Lord of the Flies, Cat's Cradle, Into the Wild</t>
+  </si>
+  <si>
+    <t>25857@dlshs.org</t>
+  </si>
+  <si>
+    <t>Alex Anca</t>
+  </si>
+  <si>
+    <t>French 3</t>
+  </si>
+  <si>
+    <t>25236@dlshs.org</t>
+  </si>
+  <si>
+    <t>Matthew David Dwinell</t>
+  </si>
+  <si>
+    <t>Luke Schroeder</t>
+  </si>
+  <si>
+    <t>25877@dlshs.org</t>
+  </si>
+  <si>
+    <t>Russell Tom</t>
+  </si>
+  <si>
+    <t>25867@dlshs.org</t>
+  </si>
+  <si>
+    <t>Jacob Steele</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>25324@dlshs.org</t>
+  </si>
+  <si>
+    <t>Dillon Gaber</t>
+  </si>
+  <si>
+    <t>Freshman STEM, Chemistry</t>
+  </si>
+  <si>
+    <t>Spanish 1, Spanish 2, Spanish 2 H, Spanish 3, Spanish 3 H, Spanish 4, Spanish for Heritage Speakers 3, Spanish for Heritage Speakers 4, AP Spanish Language and Culture</t>
+  </si>
+  <si>
+    <t>First Aid/Health, Sports Medicine 1, AP Computer Science Principles, Intro to Computer Science</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 1 H, Algebra 2 W/ Trig</t>
+  </si>
+  <si>
+    <t>Freshman STEM, Biology, Chemistry, Chemistry H</t>
+  </si>
+  <si>
+    <t>Ender's Game, Catcher in the Rye, Lord of the Flies, The Great Gatsby</t>
+  </si>
+  <si>
+    <t>Russell Benjamin Tom</t>
+  </si>
+  <si>
+    <t>Macbeth, Black Boy, Farenheit 451, Catcher in the Rye, Julius Caesar, Lord of the Flies</t>
+  </si>
+  <si>
+    <t>25564@dlshs.org</t>
+  </si>
+  <si>
+    <t>Ryan Donnelly</t>
+  </si>
+  <si>
+    <t>Algebra 1 H, Geometry H</t>
+  </si>
+  <si>
+    <t>Biology H</t>
+  </si>
+  <si>
+    <t>AP Psychology</t>
+  </si>
+  <si>
+    <t>Macbeth, Ender's Game, Catcher in the Rye, Julius Caesar</t>
+  </si>
+  <si>
+    <t>25207@dlshs.org</t>
+  </si>
+  <si>
+    <t>Max Munzinger</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 2, Geometry</t>
+  </si>
+  <si>
+    <t>Freshman STEM, Biology, Chemistry</t>
+  </si>
+  <si>
+    <t>World History, World History H, United States History, AP United States History, AP European History, AP Human Geography</t>
+  </si>
+  <si>
+    <t>Black Boy, Farenheit 451, Ender's Game, Catcher in the Rye, Lord of the Flies, The Great Gatsby, Into the Wild</t>
+  </si>
+  <si>
+    <t>25462@dlshs.org</t>
+  </si>
+  <si>
+    <t>Antony Abudayeh</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 1 H, Algebra 2, Algebra 2 W/ Trig, Algebra 2 W/ Trig H, Geometry</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Cannery Row, Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>25887@dlshs.org</t>
+  </si>
+  <si>
+    <t>Tate Lustig</t>
+  </si>
+  <si>
+    <t>25663@dlshs.org</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 2, Algebra 2 W/ Trig, Geometry</t>
+  </si>
+  <si>
+    <t>Biology, Biology H, Chemistry</t>
+  </si>
+  <si>
+    <t>World History, World History H, AP United States History, AP Psychology</t>
+  </si>
+  <si>
+    <t>25842@dlshs.org</t>
+  </si>
+  <si>
+    <t>Luke Chandler</t>
+  </si>
+  <si>
+    <t>25269@dlshs.org</t>
+  </si>
+  <si>
+    <t>Peter Kroger</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 2 W/ Trig, Geometry</t>
+  </si>
+  <si>
+    <t>World History, World History H, United States History, AP United States History, AP Human Geography, Psychology, AP Psychology</t>
+  </si>
+  <si>
+    <t>26025@dlshs.org</t>
+  </si>
+  <si>
+    <t>Luke schroeder</t>
+  </si>
+  <si>
     <t>Ernest Bon Lizardo</t>
   </si>
   <si>
-    <t>Algebra 1, Algebra 2 W/ Trig, Geometry H</t>
-  </si>
-  <si>
-    <t>Freshman STEM, AP Biology, Chemistry H</t>
-  </si>
-  <si>
-    <t>World History, AP United States History</t>
-  </si>
-  <si>
-    <t>Spanish 1, Spanish 2 H, Spanish 3</t>
-  </si>
-  <si>
-    <t>Macbeth, Black Boy, Farenheit 451, Ender's Game, Catcher in the Rye, Julius Caesar, Lord of the Flies, The Great Gatsby</t>
-  </si>
-  <si>
-    <t>25893@dlshs.org</t>
-  </si>
-  <si>
-    <t>Anthony Accardo</t>
-  </si>
-  <si>
-    <t>ASL 1</t>
-  </si>
-  <si>
-    <t>25680@dlshs.org</t>
-  </si>
-  <si>
-    <t>Matthew Gillette</t>
-  </si>
-  <si>
-    <t>World History, World History H, United States History, AP United States History, AP Psychology</t>
-  </si>
-  <si>
-    <t>First Aid/Health, AP Computer Science Principles</t>
-  </si>
-  <si>
-    <t>Farenheit 451, Cannery Row, Great Expectations, Julius Caesar, Antigone, Lord of the Flies</t>
-  </si>
-  <si>
-    <t>25938@dlshs.org</t>
-  </si>
-  <si>
-    <t>Harry Stonerock</t>
-  </si>
-  <si>
-    <t>25371@dlshs.org</t>
-  </si>
-  <si>
-    <t>Jack Chlebicki</t>
-  </si>
-  <si>
-    <t>World History H, AP United States History, AP European History</t>
-  </si>
-  <si>
-    <t>Italian 1, Italian 2, Italian 2 H, Italian 3</t>
-  </si>
-  <si>
-    <t>Farenheit 451, Lord of the Flies, Moby Dick</t>
-  </si>
-  <si>
-    <t>25458@dlshs.org</t>
-  </si>
-  <si>
-    <t>Ethan Crossett</t>
-  </si>
-  <si>
-    <t>Freshman STEM, Biology, AP Biology</t>
-  </si>
-  <si>
-    <t>French 1, French 2, French 3</t>
-  </si>
-  <si>
-    <t>Macbeth, Black Boy, Farenheit 451, Ender's Game, Julius Caesar, Antigone, Lord of the Flies, Cat's Cradle</t>
-  </si>
-  <si>
-    <t>25554@dlshs.org</t>
-  </si>
-  <si>
-    <t>Carver Dixon</t>
-  </si>
-  <si>
-    <t>World History H, AP Human Geography</t>
-  </si>
-  <si>
-    <t>Farenheit 451, Ender's Game, Julius Caesar</t>
-  </si>
-  <si>
-    <t>25734@dlshs.org</t>
-  </si>
-  <si>
-    <t>Clint Lundin</t>
-  </si>
-  <si>
-    <t>25523@dlshs.org</t>
-  </si>
-  <si>
-    <t>Emmanuel Di Giusto</t>
-  </si>
-  <si>
-    <t>Farenheit 451, Julius Caesar, Lord of the Flies, Cat's Cradle, Into the Wild</t>
-  </si>
-  <si>
-    <t>25857@dlshs.org</t>
-  </si>
-  <si>
-    <t>Alex Anca</t>
-  </si>
-  <si>
-    <t>French 3</t>
-  </si>
-  <si>
-    <t>25236@dlshs.org</t>
-  </si>
-  <si>
-    <t>Matthew David Dwinell</t>
-  </si>
-  <si>
-    <t>Luke Schroeder</t>
-  </si>
-  <si>
-    <t>25877@dlshs.org</t>
-  </si>
-  <si>
-    <t>Russell Tom</t>
-  </si>
-  <si>
-    <t>25867@dlshs.org</t>
-  </si>
-  <si>
-    <t>Jacob Steele</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>25324@dlshs.org</t>
-  </si>
-  <si>
-    <t>Dillon Gaber</t>
-  </si>
-  <si>
-    <t>Freshman STEM, Chemistry</t>
-  </si>
-  <si>
-    <t>Spanish 1, Spanish 2, Spanish 2 H, Spanish 3, Spanish 3 H, Spanish 4, Spanish for Heritage Speakers 3, Spanish for Heritage Speakers 4, AP Spanish Language and Culture</t>
-  </si>
-  <si>
-    <t>First Aid/Health, Sports Medicine 1, AP Computer Science Principles, Intro to Computer Science</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 1 H, Algebra 2 W/ Trig</t>
-  </si>
-  <si>
-    <t>Freshman STEM, Biology, Chemistry, Chemistry H</t>
-  </si>
-  <si>
-    <t>Ender's Game, Catcher in the Rye, Lord of the Flies, The Great Gatsby</t>
-  </si>
-  <si>
-    <t>Russell Benjamin Tom</t>
-  </si>
-  <si>
-    <t>Macbeth, Black Boy, Farenheit 451, Catcher in the Rye, Julius Caesar, Lord of the Flies</t>
-  </si>
-  <si>
-    <t>25564@dlshs.org</t>
-  </si>
-  <si>
-    <t>Ryan Donnelly</t>
-  </si>
-  <si>
-    <t>Algebra 1 H, Geometry H</t>
-  </si>
-  <si>
-    <t>Biology H</t>
-  </si>
-  <si>
-    <t>AP Psychology</t>
-  </si>
-  <si>
-    <t>Macbeth, Ender's Game, Catcher in the Rye, Julius Caesar</t>
-  </si>
-  <si>
-    <t>25207@dlshs.org</t>
-  </si>
-  <si>
-    <t>Max Munzinger</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 2, Geometry</t>
-  </si>
-  <si>
-    <t>Freshman STEM, Biology, Chemistry</t>
-  </si>
-  <si>
-    <t>World History, World History H, United States History, AP United States History, AP European History, AP Human Geography</t>
-  </si>
-  <si>
-    <t>Black Boy, Farenheit 451, Ender's Game, Catcher in the Rye, Lord of the Flies, The Great Gatsby, Into the Wild</t>
-  </si>
-  <si>
-    <t>25462@dlshs.org</t>
-  </si>
-  <si>
-    <t>Antony Abudayeh</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 1 H, Algebra 2, Algebra 2 W/ Trig, Algebra 2 W/ Trig H, Geometry</t>
-  </si>
-  <si>
-    <t>Farenheit 451, Cannery Row, Catcher in the Rye</t>
-  </si>
-  <si>
-    <t>25887@dlshs.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tate </t>
-  </si>
-  <si>
-    <t>25663@dlshs.org</t>
-  </si>
-  <si>
-    <t>Reid Chapman</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 2, Algebra 2 W/ Trig, Geometry</t>
-  </si>
-  <si>
-    <t>Biology, Biology H, Chemistry</t>
-  </si>
-  <si>
-    <t>World History, World History H, AP United States History, AP Psychology</t>
-  </si>
-  <si>
-    <t>25842@dlshs.org</t>
-  </si>
-  <si>
-    <t>Luke Chandler</t>
-  </si>
-  <si>
-    <t>25269@dlshs.org</t>
-  </si>
-  <si>
-    <t>Peter Kroger</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 2 W/ Trig, Geometry</t>
-  </si>
-  <si>
-    <t>World History, World History H, United States History, AP United States History, AP Human Geography, Psychology, AP Psychology</t>
-  </si>
-  <si>
-    <t>26025@dlshs.org</t>
-  </si>
-  <si>
-    <t>Luke schroeder</t>
-  </si>
-  <si>
     <t>25164@dlshs.org</t>
   </si>
   <si>
@@ -1276,7 +1279,7 @@
     <t>World History, United States History, AP United States History, AP Government, AP Human Geography</t>
   </si>
   <si>
-    <t>Arsalan Shams Amiri</t>
+    <t>Matthew Dwinell</t>
   </si>
   <si>
     <t>25254@dlshs.org</t>
@@ -1438,7 +1441,7 @@
     <t>25502@dlshs.org</t>
   </si>
   <si>
-    <t>Todd Andrew McClure</t>
+    <t>Todd McClure</t>
   </si>
   <si>
     <t>25849@dlshs.org</t>
@@ -1504,7 +1507,7 @@
     <t>25245@dlshs.org</t>
   </si>
   <si>
-    <t>Brayden Berrt</t>
+    <t>Brayden Berry</t>
   </si>
   <si>
     <t>Biology, Chemistry, Physics, AP Physics 1</t>
@@ -1744,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,6 +1786,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -2137,18 +2143,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="56.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="88.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="56.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="88.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -4817,7 +4823,7 @@
       <c r="C72" s="7">
         <v>25663</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="14" t="s">
         <v>314</v>
       </c>
       <c r="E72" s="7">
@@ -5008,7 +5014,7 @@
         <v>25294</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="E77" s="11">
         <v>12</v>
@@ -5040,13 +5046,13 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C78" s="7">
         <v>25164</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -5078,13 +5084,13 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C79" s="11">
         <v>25335</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E79" s="11">
         <v>12</v>
@@ -5096,17 +5102,17 @@
         <v>70</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
@@ -5114,13 +5120,13 @@
         <v>45881.56873842593</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C80" s="7">
         <v>25579</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E80" s="7">
         <v>11</v>
@@ -5152,13 +5158,13 @@
         <v>45881.56875</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C81" s="11">
         <v>25263</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E81" s="11">
         <v>12</v>
@@ -5196,7 +5202,7 @@
         <v>25325</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -5234,13 +5240,13 @@
         <v>25253</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E83" s="11">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>24</v>
@@ -5264,13 +5270,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C84" s="7">
         <v>26011</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E84" s="7">
         <v>10</v>
@@ -5302,13 +5308,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C85" s="11">
         <v>25686</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E85" s="11">
         <v>11</v>
@@ -5340,19 +5346,19 @@
         <v>45881.56893518518</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C86" s="7">
         <v>25214</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>32</v>
@@ -5361,7 +5367,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>179</v>
@@ -5370,7 +5376,7 @@
         <v>42</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
@@ -5378,22 +5384,22 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C87" s="11">
         <v>25276</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E87" s="11">
         <v>12</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>25</v>
@@ -5428,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>291</v>
@@ -5446,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
@@ -5454,13 +5460,13 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C89" s="11">
         <v>25741</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E89" s="11">
         <v>11</v>
@@ -5484,7 +5490,7 @@
         <v>102</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
@@ -5530,25 +5536,25 @@
         <v>45881.569131944445</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C91" s="11">
         <v>25357</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E91" s="11">
         <v>12</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>137</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>263</v>
@@ -5566,25 +5572,25 @@
         <v>45881.56917824074</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C92" s="7">
         <v>25625</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E92" s="7">
         <v>11</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>209</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>65</v>
@@ -5594,7 +5600,7 @@
         <v>75</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
@@ -5640,13 +5646,13 @@
         <v>45881.56922453704</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C94" s="7">
         <v>25603</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94" s="7">
         <v>11</v>
@@ -5672,13 +5678,13 @@
         <v>45881.56925925926</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C95" s="11">
         <v>25731</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E95" s="11">
         <v>11</v>
@@ -5690,7 +5696,7 @@
         <v>209</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>17</v>
@@ -5708,19 +5714,19 @@
         <v>45881.56927083333</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C96" s="7">
         <v>26020</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -5751,10 +5757,10 @@
         <v>136</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>263</v>
@@ -5766,7 +5772,7 @@
         <v>227</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
@@ -5774,13 +5780,13 @@
         <v>45881.56935185185</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C98" s="7">
         <v>25568</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E98" s="7">
         <v>11</v>
@@ -5800,13 +5806,13 @@
         <v>45881.569375</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C99" s="11">
         <v>25483</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E99" s="11">
         <v>11</v>
@@ -5827,10 +5833,10 @@
         <v>33</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
@@ -5912,7 +5918,7 @@
         <v>45881.56943287037</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C102" s="7">
         <v>25942</v>
@@ -5956,7 +5962,7 @@
         <v>25704</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E103" s="11">
         <v>11</v>
@@ -5988,13 +5994,13 @@
         <v>45881.569444444445</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C104" s="7">
         <v>25653</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E104" s="7">
         <v>11</v>
@@ -6006,7 +6012,7 @@
         <v>50</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>139</v>
@@ -6024,25 +6030,25 @@
         <v>45881.56945601852</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C105" s="11">
         <v>26002</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E105" s="11">
         <v>10</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>52</v>
@@ -6054,7 +6060,7 @@
         <v>102</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
@@ -6062,13 +6068,13 @@
         <v>45881.56947916667</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C106" s="7">
         <v>25598</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E106" s="7">
         <v>11</v>
@@ -6100,13 +6106,13 @@
         <v>45881.56951388889</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C107" s="11">
         <v>26055</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E107" s="11">
         <v>11</v>
@@ -6124,7 +6130,7 @@
         <v>247</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>75</v>
@@ -6136,13 +6142,13 @@
         <v>45881.56953703704</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C108" s="7">
         <v>25326</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -6163,7 +6169,7 @@
         <v>119</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>43</v>
@@ -6174,13 +6180,13 @@
         <v>45881.56957175926</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C109" s="11">
         <v>25600</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E109" s="11">
         <v>11</v>
@@ -6192,17 +6198,17 @@
         <v>79</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L109" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
@@ -6225,20 +6231,20 @@
         <v>38</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>258</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
@@ -6246,13 +6252,13 @@
         <v>45881.56962962963</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C111" s="11">
         <v>25737</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E111" s="11">
         <v>12</v>
@@ -6261,7 +6267,7 @@
         <v>189</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>25</v>
@@ -6271,10 +6277,10 @@
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L111" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
@@ -6282,25 +6288,25 @@
         <v>45881.56964120371</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C112" s="7">
         <v>25228</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>263</v>
@@ -6326,7 +6332,7 @@
         <v>25236</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
       <c r="E113" s="11">
         <v>12</v>
@@ -6363,8 +6369,8 @@
       <c r="C114" s="7">
         <v>26050</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>420</v>
+      <c r="D114" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="E114" s="7">
         <v>10</v>
@@ -6434,19 +6440,19 @@
         <v>45881.56982638889</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C116" s="7">
         <v>25254</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>287</v>
@@ -6462,7 +6468,7 @@
         <v>42</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
@@ -6470,13 +6476,13 @@
         <v>45881.56988425926</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C117" s="11">
         <v>25368</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E117" s="11">
         <v>12</v>
@@ -6485,17 +6491,17 @@
         <v>174</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>288</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L117" s="13" t="s">
         <v>140</v>
@@ -6574,7 +6580,7 @@
         <v>27</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
@@ -6597,7 +6603,7 @@
         <v>174</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>143</v>
@@ -6612,7 +6618,7 @@
         <v>175</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
@@ -6620,13 +6626,13 @@
         <v>45881.56993055555</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C121" s="11">
         <v>25651</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E121" s="11">
         <v>11</v>
@@ -6638,7 +6644,7 @@
         <v>209</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>26</v>
@@ -6658,13 +6664,13 @@
         <v>45881.56997685185</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C122" s="7">
         <v>25656</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E122" s="7">
         <v>11</v>
@@ -6688,7 +6694,7 @@
         <v>59</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
@@ -6726,7 +6732,7 @@
         <v>167</v>
       </c>
       <c r="L123" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
@@ -6764,7 +6770,7 @@
         <v>102</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
@@ -6772,13 +6778,13 @@
         <v>45881.57005787037</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C125" s="11">
         <v>25878</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E125" s="11">
         <v>10</v>
@@ -6810,13 +6816,13 @@
         <v>45881.57015046296</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C126" s="7">
         <v>25524</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E126" s="7">
         <v>11</v>
@@ -6831,10 +6837,10 @@
         <v>100</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>152</v>
@@ -6848,13 +6854,13 @@
         <v>45881.57030092592</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C127" s="11">
         <v>25588</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E127" s="11">
         <v>11</v>
@@ -6863,7 +6869,7 @@
         <v>63</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>16</v>
@@ -6878,7 +6884,7 @@
         <v>34</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
@@ -6886,13 +6892,13 @@
         <v>45881.57030092592</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C128" s="7">
         <v>25577</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E128" s="7">
         <v>11</v>
@@ -6904,7 +6910,7 @@
         <v>32</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>26</v>
@@ -6972,13 +6978,13 @@
         <v>12</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>183</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>185</v>
@@ -7004,7 +7010,7 @@
         <v>25552</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E131" s="11">
         <v>11</v>
@@ -7036,13 +7042,13 @@
         <v>45881.570555555554</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C132" s="7">
         <v>25160</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -7051,22 +7057,22 @@
         <v>166</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>210</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>34</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
@@ -7074,13 +7080,13 @@
         <v>45881.5705787037</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C133" s="11">
         <v>25709</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E133" s="11">
         <v>11</v>
@@ -7104,7 +7110,7 @@
         <v>102</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
@@ -7150,13 +7156,13 @@
         <v>45881.570763888885</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C135" s="11">
         <v>25299</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E135" s="11">
         <v>12</v>
@@ -7168,7 +7174,7 @@
         <v>57</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>17</v>
@@ -7180,7 +7186,7 @@
         <v>42</v>
       </c>
       <c r="L135" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
@@ -7188,19 +7194,19 @@
         <v>45881.571122685185</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C136" s="7">
         <v>26021</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E136" s="7">
         <v>10</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>57</v>
@@ -7226,22 +7232,22 @@
         <v>45881.57134259259</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C137" s="11">
         <v>25425</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E137" s="11">
         <v>12</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -7273,10 +7279,10 @@
         <v>174</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>52</v>
@@ -7288,7 +7294,7 @@
         <v>42</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
@@ -7296,19 +7302,19 @@
         <v>45881.57144675926</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C139" s="11">
         <v>26036</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E139" s="11">
         <v>10</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>57</v>
@@ -7324,7 +7330,7 @@
         <v>167</v>
       </c>
       <c r="L139" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
@@ -7368,13 +7374,13 @@
         <v>45881.57165509259</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C141" s="11">
         <v>25502</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E141" s="11">
         <v>11</v>
@@ -7404,13 +7410,13 @@
         <v>45881.57173611111</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C142" s="7">
         <v>25849</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -7442,13 +7448,13 @@
         <v>45881.57181712963</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C143" s="11">
         <v>25870</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E143" s="11">
         <v>10</v>
@@ -7466,7 +7472,7 @@
         <v>214</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K143" s="10" t="s">
         <v>167</v>
@@ -7480,19 +7486,19 @@
         <v>45881.571875</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C144" s="7">
         <v>25924</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E144" s="7">
         <v>10</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>57</v>
@@ -7501,7 +7507,7 @@
         <v>58</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>127</v>
@@ -7556,13 +7562,13 @@
         <v>45881.572800925926</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C146" s="7">
         <v>25279</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E146" s="7">
         <v>12</v>
@@ -7580,7 +7586,7 @@
         <v>167</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
@@ -7588,19 +7594,19 @@
         <v>45881.573425925926</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C147" s="11">
         <v>25330</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E147" s="11">
         <v>12</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>70</v>
@@ -7616,7 +7622,7 @@
         <v>42</v>
       </c>
       <c r="L147" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
@@ -7624,25 +7630,25 @@
         <v>45881.57472222222</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C148" s="7">
         <v>25383</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E148" s="7">
         <v>12</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>214</v>
@@ -7651,10 +7657,10 @@
         <v>46</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
@@ -7662,13 +7668,13 @@
         <v>45881.57534722222</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C149" s="11">
         <v>25245</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E149" s="11">
         <v>12</v>
@@ -7677,7 +7683,7 @@
         <v>170</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H149" s="10" t="s">
         <v>138</v>
@@ -7687,7 +7693,7 @@
       </c>
       <c r="J149" s="12"/>
       <c r="K149" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L149" s="13" t="s">
         <v>211</v>
@@ -7728,44 +7734,44 @@
         <v>75</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="14">
+      <c r="A151" s="15">
         <v>45881.602164351854</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C151" s="16">
+      <c r="B151" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C151" s="17">
         <v>25702</v>
       </c>
-      <c r="D151" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="E151" s="16">
+      <c r="D151" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E151" s="17">
         <v>11</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="G151" s="15" t="s">
+      <c r="F151" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G151" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="15" t="s">
+      <c r="H151" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J151" s="15" t="s">
+      <c r="J151" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K151" s="15" t="s">
+      <c r="K151" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L151" s="17" t="s">
+      <c r="L151" s="18" t="s">
         <v>124</v>
       </c>
     </row>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -958,7 +958,7 @@
     <t>25663@dlshs.org</t>
   </si>
   <si>
-    <t/>
+    <t>Reid Chapman</t>
   </si>
   <si>
     <t>Algebra 1, Algebra 2, Algebra 2 W/ Trig, Geometry</t>
@@ -1351,7 +1351,7 @@
     <t>25588@dlshs.org</t>
   </si>
   <si>
-    <t>Carson mucha</t>
+    <t>Carson Mucha</t>
   </si>
   <si>
     <t>Biology, Biology H</t>
@@ -1747,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1786,9 +1786,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -2143,18 +2140,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="56.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="88.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="56.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="88.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -4823,7 +4820,7 @@
       <c r="C72" s="7">
         <v>25663</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="6" t="s">
         <v>314</v>
       </c>
       <c r="E72" s="7">
@@ -6369,8 +6366,8 @@
       <c r="C114" s="7">
         <v>26050</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>314</v>
+      <c r="D114" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E114" s="7">
         <v>10</v>
@@ -7738,40 +7735,40 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="15">
+      <c r="A151" s="14">
         <v>45881.602164351854</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C151" s="17">
+      <c r="C151" s="16">
         <v>25702</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="E151" s="17">
+      <c r="E151" s="16">
         <v>11</v>
       </c>
-      <c r="F151" s="16" t="s">
+      <c r="F151" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="G151" s="16" t="s">
+      <c r="G151" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="16" t="s">
+      <c r="H151" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I151" s="16" t="s">
+      <c r="I151" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J151" s="16" t="s">
+      <c r="J151" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K151" s="16" t="s">
+      <c r="K151" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L151" s="18" t="s">
+      <c r="L151" s="17" t="s">
         <v>124</v>
       </c>
     </row>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="507">
   <si>
     <t>Timestamp</t>
   </si>
@@ -673,7 +673,7 @@
     <t>25200@dlshs.org</t>
   </si>
   <si>
-    <t>Tyce di Pretoro</t>
+    <t>Tyce Di Pretoro</t>
   </si>
   <si>
     <t>Algebra 1, Algebra 1 H, Algebra 2, Geometry</t>
@@ -850,7 +850,7 @@
     <t>25236@dlshs.org</t>
   </si>
   <si>
-    <t>Matthew David Dwinell</t>
+    <t>Matthew Dwinell</t>
   </si>
   <si>
     <t>Luke Schroeder</t>
@@ -991,12 +991,6 @@
     <t>26025@dlshs.org</t>
   </si>
   <si>
-    <t>Luke schroeder</t>
-  </si>
-  <si>
-    <t>Ernest Bon Lizardo</t>
-  </si>
-  <si>
     <t>25164@dlshs.org</t>
   </si>
   <si>
@@ -1030,9 +1024,6 @@
     <t>Nio Estacio</t>
   </si>
   <si>
-    <t>Lustig</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sean Edens </t>
   </si>
   <si>
@@ -1174,9 +1165,6 @@
     <t>25942@dlshs.org</t>
   </si>
   <si>
-    <t>Prindiville</t>
-  </si>
-  <si>
     <t>25653@dlshs.org</t>
   </si>
   <si>
@@ -1189,7 +1177,7 @@
     <t>26002@dlshs.org</t>
   </si>
   <si>
-    <t>dominic kauffman</t>
+    <t>Dominic Kauffman</t>
   </si>
   <si>
     <t>Algebra 1, Algebra 1 H, Algebra 2, Algebra 2 W/ Trig, Algebra 2 W/ Trig H, AP Calculus AB, AP Calculus BC, Geometry, Geometry H, Pre-Calculus, Pre-Calculus H</t>
@@ -1279,7 +1267,7 @@
     <t>World History, United States History, AP United States History, AP Government, AP Human Geography</t>
   </si>
   <si>
-    <t>Matthew Dwinell</t>
+    <t>Arsalan Shams Amiri</t>
   </si>
   <si>
     <t>25254@dlshs.org</t>
@@ -1351,7 +1339,7 @@
     <t>25588@dlshs.org</t>
   </si>
   <si>
-    <t>Carson Mucha</t>
+    <t>Carson mucha</t>
   </si>
   <si>
     <t>Biology, Biology H</t>
@@ -1523,6 +1511,30 @@
   </si>
   <si>
     <t>Algebra 1, Algebra 1 H, Algebra 2 W/ Trig, Geometry, Geometry H</t>
+  </si>
+  <si>
+    <t>25267@dlshs.org</t>
+  </si>
+  <si>
+    <t>Lee Vaouli</t>
+  </si>
+  <si>
+    <t>Biology, Biology H, AP Biology, Chemistry, Chemistry H, AP Chemistry</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Romeo and Juliet, Cannery Row, Great Expectations, Julius Caesar, Antigone, Lord of the Flies, Cat's Cradle, The Great Gatsby, Moby Dick</t>
+  </si>
+  <si>
+    <t>First Aid/Health, Sports Medicine 1, Intro to Computer Science</t>
+  </si>
+  <si>
+    <t>25699@dlshs.org</t>
+  </si>
+  <si>
+    <t>Alex Lordan</t>
+  </si>
+  <si>
+    <t>World History, AP Human Geography</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1795,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1801,10 +1813,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1824,8 +1836,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L151" displayName="Form_Responses" name="Form_Responses" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L153" displayName="Form_Responses" name="Form_Responses" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L153"/>
   <tableColumns count="12">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -2132,7 +2144,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -2143,7 +2155,7 @@
     <col min="1" max="1" style="18" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="20" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="19" width="22.719285714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
@@ -2192,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="5">
         <v>45868.68472222222</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="9">
         <v>45868.68677083333</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="5">
         <v>45868.68770833333</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="9">
         <v>45868.68777777778</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="5">
         <v>45868.687997685185</v>
       </c>
@@ -2378,7 +2390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="9">
         <v>45868.68803240741</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="5">
         <v>45868.688125</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="9">
         <v>45868.68834490741</v>
       </c>
@@ -2492,7 +2504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="5">
         <v>45868.68854166667</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="9">
         <v>45868.688680555555</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="5">
         <v>45868.68907407407</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="9">
         <v>45868.689409722225</v>
       </c>
@@ -2642,7 +2654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="5">
         <v>45868.69042824074</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="9">
         <v>45868.691516203704</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="5">
         <v>45868.69179398148</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="9">
         <v>45868.69230324074</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="5">
         <v>45868.694131944445</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="9">
         <v>45868.69537037037</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="5">
         <v>45868.695810185185</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="9">
         <v>45868.69949074074</v>
       </c>
@@ -2938,7 +2950,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="5">
         <v>45868.708078703705</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="9">
         <v>45868.708287037036</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="5">
         <v>45868.709814814814</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="9">
         <v>45868.721238425926</v>
       </c>
@@ -3084,7 +3096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="5">
         <v>45868.721354166664</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="9">
         <v>45868.727789351855</v>
       </c>
@@ -3156,7 +3168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="5">
         <v>45868.73771990741</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="9">
         <v>45868.74028935185</v>
       </c>
@@ -3232,7 +3244,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="5">
         <v>45868.741435185184</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="9">
         <v>45868.88265046296</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="5">
         <v>45868.96675925926</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>26025</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="E76" s="7">
         <v>10</v>
@@ -5011,7 +5023,7 @@
         <v>25294</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="E77" s="11">
         <v>12</v>
@@ -5043,13 +5055,13 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C78" s="7">
         <v>25164</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -5081,13 +5093,13 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C79" s="11">
         <v>25335</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E79" s="11">
         <v>12</v>
@@ -5099,17 +5111,17 @@
         <v>70</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
@@ -5117,13 +5129,13 @@
         <v>45881.56873842593</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C80" s="7">
         <v>25579</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E80" s="7">
         <v>11</v>
@@ -5155,13 +5167,13 @@
         <v>45881.56875</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C81" s="11">
         <v>25263</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E81" s="11">
         <v>12</v>
@@ -5199,7 +5211,7 @@
         <v>25325</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -5237,13 +5249,13 @@
         <v>25253</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E83" s="11">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>24</v>
@@ -5267,13 +5279,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C84" s="7">
         <v>26011</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E84" s="7">
         <v>10</v>
@@ -5305,13 +5317,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C85" s="11">
         <v>25686</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E85" s="11">
         <v>11</v>
@@ -5343,19 +5355,19 @@
         <v>45881.56893518518</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C86" s="7">
         <v>25214</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>32</v>
@@ -5364,7 +5376,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>179</v>
@@ -5373,7 +5385,7 @@
         <v>42</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
@@ -5381,22 +5393,22 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C87" s="11">
         <v>25276</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E87" s="11">
         <v>12</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>25</v>
@@ -5431,7 +5443,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>291</v>
@@ -5449,7 +5461,7 @@
         <v>27</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
@@ -5457,13 +5469,13 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C89" s="11">
         <v>25741</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E89" s="11">
         <v>11</v>
@@ -5487,7 +5499,7 @@
         <v>102</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
@@ -5533,25 +5545,25 @@
         <v>45881.569131944445</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C91" s="11">
         <v>25357</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E91" s="11">
         <v>12</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>137</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>263</v>
@@ -5569,25 +5581,25 @@
         <v>45881.56917824074</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C92" s="7">
         <v>25625</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E92" s="7">
         <v>11</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>209</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>65</v>
@@ -5597,7 +5609,7 @@
         <v>75</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
@@ -5643,13 +5655,13 @@
         <v>45881.56922453704</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C94" s="7">
         <v>25603</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E94" s="7">
         <v>11</v>
@@ -5675,13 +5687,13 @@
         <v>45881.56925925926</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C95" s="11">
         <v>25731</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E95" s="11">
         <v>11</v>
@@ -5693,7 +5705,7 @@
         <v>209</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>17</v>
@@ -5711,19 +5723,19 @@
         <v>45881.56927083333</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C96" s="7">
         <v>26020</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -5754,10 +5766,10 @@
         <v>136</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>263</v>
@@ -5769,7 +5781,7 @@
         <v>227</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
@@ -5777,13 +5789,13 @@
         <v>45881.56935185185</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C98" s="7">
         <v>25568</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E98" s="7">
         <v>11</v>
@@ -5803,13 +5815,13 @@
         <v>45881.569375</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C99" s="11">
         <v>25483</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E99" s="11">
         <v>11</v>
@@ -5830,10 +5842,10 @@
         <v>33</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
@@ -5915,7 +5927,7 @@
         <v>45881.56943287037</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C102" s="7">
         <v>25942</v>
@@ -5950,60 +5962,58 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="9">
-        <v>45881.56943287037</v>
+        <v>45881.569444444445</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="C103" s="11">
-        <v>25704</v>
+        <v>25653</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E103" s="11">
         <v>11</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>146</v>
+        <v>385</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>46</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J103" s="12"/>
       <c r="K103" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="5">
-        <v>45881.569444444445</v>
+        <v>45881.56945601852</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="7">
+        <v>26002</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C104" s="7">
-        <v>25653</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="E104" s="7">
+        <v>10</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="E104" s="7">
-        <v>11</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>50</v>
@@ -6012,272 +6022,274 @@
         <v>389</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J104" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K104" s="6" t="s">
         <v>102</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>103</v>
+        <v>390</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="9">
-        <v>45881.56945601852</v>
+        <v>45881.56947916667</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C105" s="11">
-        <v>26002</v>
+        <v>25598</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E105" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>394</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="5">
-        <v>45881.56947916667</v>
+        <v>45881.56951388889</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C106" s="7">
-        <v>25598</v>
+        <v>26055</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E106" s="7">
         <v>11</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L106" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="9">
-        <v>45881.56951388889</v>
+        <v>45881.56953703704</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" s="11">
+        <v>25326</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C107" s="11">
-        <v>26055</v>
-      </c>
-      <c r="D107" s="10" t="s">
+      <c r="E107" s="11">
+        <v>12</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K107" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="11">
-        <v>11</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J107" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L107" s="12"/>
+      <c r="L107" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="5">
-        <v>45881.56953703704</v>
+        <v>45881.56957175926</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" s="7">
+        <v>25600</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C108" s="7">
-        <v>25326</v>
-      </c>
-      <c r="D108" s="6" t="s">
+      <c r="E108" s="7">
+        <v>11</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I108" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E108" s="7">
-        <v>12</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="J108" s="12"/>
       <c r="K108" s="6" t="s">
         <v>402</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="9">
-        <v>45881.56957175926</v>
+        <v>45881.56961805555</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="C109" s="11">
-        <v>25600</v>
+        <v>25371</v>
       </c>
       <c r="D109" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E109" s="11">
+        <v>12</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E109" s="11">
-        <v>11</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>372</v>
-      </c>
       <c r="I109" s="10" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="L109" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="L109" s="13" t="s">
-        <v>407</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="5">
-        <v>45881.56961805555</v>
+        <v>45881.56962962963</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="C110" s="7">
-        <v>25371</v>
+        <v>25737</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>256</v>
+        <v>408</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>408</v>
+        <v>25</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="9">
-        <v>45881.56962962963</v>
+        <v>45881.56964120371</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C111" s="11">
-        <v>25737</v>
+        <v>25228</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E111" s="11">
         <v>12</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>25</v>
+        <v>416</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J111" s="12"/>
+        <v>263</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K111" s="10" t="s">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="L111" s="13" t="s">
-        <v>415</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
@@ -6285,31 +6297,31 @@
         <v>45881.56964120371</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>416</v>
+        <v>277</v>
       </c>
       <c r="C112" s="7">
-        <v>25228</v>
+        <v>25236</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>27</v>
@@ -6320,72 +6332,72 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="9">
-        <v>45881.56964120371</v>
+        <v>45881.5697337963</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="C113" s="11">
-        <v>25236</v>
+        <v>26050</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E113" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="L113" s="13" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="5">
-        <v>45881.5697337963</v>
+        <v>45881.56980324074</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C114" s="7">
-        <v>26050</v>
+        <v>25893</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="E114" s="7">
         <v>10</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>75</v>
@@ -6396,51 +6408,49 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="9">
-        <v>45881.56980324074</v>
+        <v>45881.56982638889</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="C115" s="11">
-        <v>25893</v>
+        <v>25254</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="E115" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="J115" s="12"/>
       <c r="K115" s="10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="5">
-        <v>45881.56982638889</v>
+        <v>45881.56988425926</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>422</v>
       </c>
       <c r="C116" s="7">
-        <v>25254</v>
+        <v>25368</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>423</v>
@@ -6449,59 +6459,61 @@
         <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="I116" s="6" t="s">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="6" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>425</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="9">
-        <v>45881.56988425926</v>
+        <v>45881.56990740741</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="C117" s="11">
-        <v>25368</v>
+        <v>25958</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>427</v>
+        <v>236</v>
       </c>
       <c r="E117" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>428</v>
+        <v>16</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J117" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="K117" s="10" t="s">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
@@ -6509,37 +6521,37 @@
         <v>45881.56990740741</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C118" s="7">
-        <v>25958</v>
+        <v>25680</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E118" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
@@ -6547,13 +6559,13 @@
         <v>45881.56990740741</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="C119" s="11">
-        <v>25680</v>
+        <v>25463</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="E119" s="11">
         <v>11</v>
@@ -6562,74 +6574,74 @@
         <v>174</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>65</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="5">
-        <v>45881.56990740741</v>
+        <v>45881.56993055555</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="C120" s="7">
-        <v>25463</v>
+        <v>25651</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="E120" s="7">
         <v>11</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>431</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="9">
-        <v>45881.56993055555</v>
+        <v>45881.56997685185</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C121" s="11">
-        <v>25651</v>
+        <v>25656</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E121" s="11">
         <v>11</v>
@@ -6638,98 +6650,98 @@
         <v>63</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>103</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="5">
-        <v>45881.56997685185</v>
+        <v>45881.570023148146</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>434</v>
+        <v>274</v>
       </c>
       <c r="C122" s="7">
-        <v>25656</v>
+        <v>25857</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="E122" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="9">
-        <v>45881.570023148146</v>
+        <v>45881.57005787037</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="C123" s="11">
-        <v>25857</v>
+        <v>26026</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="E123" s="11">
         <v>10</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="L123" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
@@ -6737,86 +6749,86 @@
         <v>45881.57005787037</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="C124" s="7">
-        <v>26026</v>
+        <v>25878</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="E124" s="7">
         <v>10</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J124" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>437</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="9">
-        <v>45881.57005787037</v>
+        <v>45881.57015046296</v>
       </c>
       <c r="B125" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C125" s="11">
+        <v>25524</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E125" s="11">
+        <v>11</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I125" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C125" s="11">
-        <v>25878</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="J125" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="E125" s="11">
-        <v>10</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J125" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="K125" s="10" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="L125" s="13" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="5">
-        <v>45881.57015046296</v>
+        <v>45881.57030092592</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C126" s="7">
-        <v>25524</v>
+        <v>25588</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>441</v>
@@ -6825,25 +6837,25 @@
         <v>11</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>442</v>
+        <v>65</v>
       </c>
       <c r="J126" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
@@ -6854,7 +6866,7 @@
         <v>444</v>
       </c>
       <c r="C127" s="11">
-        <v>25588</v>
+        <v>25577</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>445</v>
@@ -6863,233 +6875,233 @@
         <v>11</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G127" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="H127" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="I127" s="10" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="K127" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>447</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="5">
-        <v>45881.57030092592</v>
+        <v>45881.57037037037</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>448</v>
+        <v>94</v>
       </c>
       <c r="C128" s="7">
-        <v>25577</v>
+        <v>25808</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>449</v>
+        <v>95</v>
       </c>
       <c r="E128" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>450</v>
+        <v>58</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J128" s="12"/>
       <c r="K128" s="6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="9">
-        <v>45881.57037037037</v>
+        <v>45881.570381944446</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C129" s="11">
-        <v>25808</v>
+        <v>25251</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="E129" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J129" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="K129" s="10" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="L129" s="13" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="5">
-        <v>45881.570381944446</v>
+        <v>45881.57045138889</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C130" s="7">
-        <v>25251</v>
+        <v>25552</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="E130" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>451</v>
+        <v>166</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>452</v>
+        <v>25</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="9">
-        <v>45881.57045138889</v>
+        <v>45881.570555555554</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
       <c r="C131" s="11">
-        <v>25552</v>
+        <v>25160</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E131" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>166</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>25</v>
+        <v>452</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>33</v>
+        <v>439</v>
       </c>
       <c r="K131" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="5">
-        <v>45881.570555555554</v>
+        <v>45881.5705787037</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>454</v>
       </c>
       <c r="C132" s="7">
-        <v>25160</v>
+        <v>25709</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>455</v>
       </c>
       <c r="E132" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>348</v>
+        <v>50</v>
       </c>
       <c r="H132" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L132" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="I132" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="9">
-        <v>45881.5705787037</v>
+        <v>45881.57067129629</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="C133" s="11">
-        <v>25709</v>
+        <v>26053</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="E133" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>50</v>
@@ -7098,328 +7110,328 @@
         <v>143</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="L133" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
+      <c r="A134" s="5">
+        <v>45881.570763888885</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C134" s="7">
+        <v>25299</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E134" s="7">
+        <v>12</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L134" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="5">
-        <v>45881.57067129629</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" s="7">
-        <v>26053</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E134" s="7">
-        <v>10</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="9">
-        <v>45881.570763888885</v>
+        <v>45881.571122685185</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C135" s="11">
-        <v>25299</v>
+        <v>26021</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E135" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>463</v>
+        <v>100</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="L135" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
+      <c r="A136" s="5">
+        <v>45881.57134259259</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C136" s="7">
+        <v>25425</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="5">
-        <v>45881.571122685185</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="E136" s="7">
+        <v>12</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C136" s="7">
-        <v>26021</v>
-      </c>
-      <c r="D136" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E136" s="7">
-        <v>10</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
       <c r="K136" s="6" t="s">
         <v>167</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="9">
-        <v>45881.57134259259</v>
+        <v>45881.57142361111</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" s="11">
+        <v>25471</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" s="11">
+        <v>11</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K137" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L137" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C137" s="11">
-        <v>25425</v>
-      </c>
-      <c r="D137" s="10" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
+      <c r="A138" s="5">
+        <v>45881.57144675926</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E137" s="11">
+      <c r="C138" s="7">
+        <v>26036</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E138" s="7">
+        <v>10</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="12"/>
+      <c r="K138" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="9">
+        <v>45881.57162037037</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139" s="11">
+        <v>25313</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="11">
         <v>12</v>
       </c>
-      <c r="F137" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L137" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="5">
-        <v>45881.57142361111</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="7">
-        <v>25471</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E138" s="7">
-        <v>11</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K138" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="9">
-        <v>45881.57144675926</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C139" s="11">
-        <v>26036</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="E139" s="11">
-        <v>10</v>
-      </c>
       <c r="F139" s="10" t="s">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="J139" s="12"/>
       <c r="K139" s="10" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="L139" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="5">
-        <v>45881.57162037037</v>
+        <v>45881.57165509259</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>104</v>
+        <v>470</v>
       </c>
       <c r="C140" s="7">
-        <v>25313</v>
+        <v>25502</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="E140" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G140" s="12"/>
       <c r="H140" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J140" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="K140" s="6" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="9">
-        <v>45881.57165509259</v>
+        <v>45881.57173611111</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C141" s="11">
-        <v>25502</v>
+        <v>25849</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E141" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G141" s="12"/>
+      <c r="G141" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="H141" s="10" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="K141" s="10" t="s">
         <v>75</v>
       </c>
       <c r="L141" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="5">
-        <v>45881.57173611111</v>
+        <v>45881.57181712963</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C142" s="7">
-        <v>25849</v>
+        <v>25870</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>57</v>
@@ -7428,348 +7440,422 @@
         <v>100</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="9">
-        <v>45881.57181712963</v>
+        <v>45881.571875</v>
       </c>
       <c r="B143" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C143" s="11">
+        <v>25924</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="C143" s="11">
-        <v>25870</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="E143" s="11">
         <v>10</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H143" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L143" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="5">
+        <v>45881.57219907407</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" s="7">
+        <v>25713</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E144" s="7">
+        <v>11</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I143" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J143" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="K143" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L143" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="5">
-        <v>45881.571875</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="I144" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
+      <c r="A145" s="9">
+        <v>45881.572800925926</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C144" s="7">
-        <v>25924</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="C145" s="11">
+        <v>25279</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E144" s="7">
-        <v>10</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K144" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L144" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="9">
-        <v>45881.57219907407</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C145" s="11">
-        <v>25713</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="E145" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G145" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="G145" s="12"/>
       <c r="H145" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J145" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
       <c r="K145" s="10" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="L145" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="5">
-        <v>45881.572800925926</v>
+        <v>45881.573425925926</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C146" s="7">
+        <v>25330</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="C146" s="7">
-        <v>25279</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="E146" s="7">
         <v>12</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G146" s="12"/>
+        <v>486</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H146" s="6" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
+      <c r="J146" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="K146" s="6" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="L146" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="9">
+        <v>45881.57472222222</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="9">
-        <v>45881.573425925926</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="C147" s="11">
+        <v>25383</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="C147" s="11">
-        <v>25330</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="E147" s="11">
         <v>12</v>
       </c>
       <c r="F147" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H147" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G147" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I147" s="12"/>
+      <c r="I147" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="J147" s="10" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="L147" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="5">
-        <v>45881.57472222222</v>
+        <v>45881.57534722222</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C148" s="7">
-        <v>25383</v>
+        <v>25245</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E148" s="7">
         <v>12</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>353</v>
+        <v>494</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>494</v>
+        <v>138</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="J148" s="12"/>
       <c r="K148" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="9">
-        <v>45881.57534722222</v>
+        <v>45881.58646990741</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>496</v>
+        <v>110</v>
       </c>
       <c r="C149" s="11">
-        <v>25245</v>
+        <v>25231</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>497</v>
+        <v>111</v>
       </c>
       <c r="E149" s="11">
         <v>12</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="G149" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L149" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="5">
+        <v>45881.602164351854</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" s="7">
+        <v>25702</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E150" s="7">
+        <v>11</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H149" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J149" s="12"/>
-      <c r="K149" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
-      <c r="A150" s="5">
-        <v>45881.58646990741</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C150" s="7">
-        <v>25231</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E150" s="7">
-        <v>12</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G150" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K150" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
+      <c r="A151" s="9">
+        <v>45882.49980324074</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" s="11">
+        <v>25267</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E151" s="11">
+        <v>12</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J151" s="12"/>
+      <c r="K151" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="L151" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
+      <c r="A152" s="5">
+        <v>45882.50050925926</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="7">
+        <v>25338</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="7">
+        <v>12</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="14">
+        <v>45882.81219907408</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C153" s="16">
+        <v>25699</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="E153" s="16">
+        <v>11</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L150" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="14">
-        <v>45881.602164351854</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="C151" s="16">
-        <v>25702</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E151" s="16">
-        <v>11</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I151" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K151" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L151" s="17" t="s">
-        <v>124</v>
+      <c r="L153" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="506">
   <si>
     <t>Timestamp</t>
   </si>
@@ -893,9 +893,6 @@
   </si>
   <si>
     <t>Ender's Game, Catcher in the Rye, Lord of the Flies, The Great Gatsby</t>
-  </si>
-  <si>
-    <t>Russell Benjamin Tom</t>
   </si>
   <si>
     <t>Macbeth, Black Boy, Farenheit 451, Catcher in the Rye, Julius Caesar, Lord of the Flies</t>
@@ -1795,7 +1792,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1813,10 +1810,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2204,7 +2201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>45868.68472222222</v>
       </c>
@@ -2242,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="9">
         <v>45868.68677083333</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>45868.68770833333</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="9">
         <v>45868.68777777778</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>45868.687997685185</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="9">
         <v>45868.68803240741</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>45868.688125</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9">
         <v>45868.68834490741</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>45868.68854166667</v>
       </c>
@@ -2540,7 +2537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="9">
         <v>45868.688680555555</v>
       </c>
@@ -2578,7 +2575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>45868.68907407407</v>
       </c>
@@ -2616,7 +2613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="9">
         <v>45868.689409722225</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>45868.69042824074</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="9">
         <v>45868.691516203704</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>45868.69179398148</v>
       </c>
@@ -2768,7 +2765,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="9">
         <v>45868.69230324074</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>45868.694131944445</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="9">
         <v>45868.69537037037</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>45868.695810185185</v>
       </c>
@@ -2916,7 +2913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="9">
         <v>45868.69949074074</v>
       </c>
@@ -2950,7 +2947,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>45868.708078703705</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="9">
         <v>45868.708287037036</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5">
         <v>45868.709814814814</v>
       </c>
@@ -3060,7 +3057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="9">
         <v>45868.721238425926</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>45868.721354166664</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="9">
         <v>45868.727789351855</v>
       </c>
@@ -3168,7 +3165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
         <v>45868.73771990741</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="9">
         <v>45868.74028935185</v>
       </c>
@@ -3244,7 +3241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5">
         <v>45868.741435185184</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="9">
         <v>45868.88265046296</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5">
         <v>45868.96675925926</v>
       </c>
@@ -4607,7 +4604,7 @@
         <v>25877</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4669,7 +4666,7 @@
         <v>34</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
@@ -4677,25 +4674,25 @@
         <v>45881.568402777775</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C68" s="7">
         <v>25564</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E68" s="7">
         <v>11</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>65</v>
@@ -4705,7 +4702,7 @@
         <v>34</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
@@ -4713,25 +4710,25 @@
         <v>45881.56841435185</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C69" s="11">
         <v>25207</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E69" s="11">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="H69" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>139</v>
@@ -4743,7 +4740,7 @@
         <v>42</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
@@ -4751,19 +4748,19 @@
         <v>45881.56842592593</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" s="7">
         <v>25462</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E70" s="7">
         <v>11</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>50</v>
@@ -4781,7 +4778,7 @@
         <v>175</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
@@ -4789,13 +4786,13 @@
         <v>45881.56849537037</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C71" s="11">
         <v>25887</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E71" s="11">
         <v>10</v>
@@ -4827,25 +4824,25 @@
         <v>45881.568506944444</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="7">
         <v>25663</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E72" s="7">
         <v>11</v>
       </c>
       <c r="F72" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>101</v>
@@ -4903,13 +4900,13 @@
         <v>45881.56854166667</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74" s="7">
         <v>25842</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E74" s="7">
         <v>10</v>
@@ -4941,25 +4938,25 @@
         <v>45881.568564814814</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C75" s="11">
         <v>25269</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E75" s="11">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>17</v>
@@ -4979,7 +4976,7 @@
         <v>45881.56859953704</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C76" s="7">
         <v>26025</v>
@@ -5055,19 +5052,19 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C78" s="7">
         <v>25164</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>70</v>
@@ -5093,13 +5090,13 @@
         <v>45881.568715277775</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C79" s="11">
         <v>25335</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E79" s="11">
         <v>12</v>
@@ -5111,17 +5108,17 @@
         <v>70</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L79" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
@@ -5129,13 +5126,13 @@
         <v>45881.56873842593</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C80" s="7">
         <v>25579</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E80" s="7">
         <v>11</v>
@@ -5167,13 +5164,13 @@
         <v>45881.56875</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C81" s="11">
         <v>25263</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E81" s="11">
         <v>12</v>
@@ -5182,7 +5179,7 @@
         <v>166</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>161</v>
@@ -5249,13 +5246,13 @@
         <v>25253</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E83" s="11">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>24</v>
@@ -5279,13 +5276,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C84" s="7">
         <v>26011</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E84" s="7">
         <v>10</v>
@@ -5317,13 +5314,13 @@
         <v>45881.568923611114</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C85" s="11">
         <v>25686</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E85" s="11">
         <v>11</v>
@@ -5355,19 +5352,19 @@
         <v>45881.56893518518</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C86" s="7">
         <v>25214</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>32</v>
@@ -5376,7 +5373,7 @@
         <v>194</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>179</v>
@@ -5385,7 +5382,7 @@
         <v>42</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
@@ -5393,22 +5390,22 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C87" s="11">
         <v>25276</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E87" s="11">
         <v>12</v>
       </c>
       <c r="F87" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>25</v>
@@ -5443,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>291</v>
@@ -5461,7 +5458,7 @@
         <v>27</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
@@ -5469,13 +5466,13 @@
         <v>45881.56903935185</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C89" s="11">
         <v>25741</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E89" s="11">
         <v>11</v>
@@ -5499,7 +5496,7 @@
         <v>102</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
@@ -5545,25 +5542,25 @@
         <v>45881.569131944445</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C91" s="11">
         <v>25357</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E91" s="11">
         <v>12</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>137</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>263</v>
@@ -5581,25 +5578,25 @@
         <v>45881.56917824074</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C92" s="7">
         <v>25625</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E92" s="7">
         <v>11</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>209</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>65</v>
@@ -5609,7 +5606,7 @@
         <v>75</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
@@ -5655,13 +5652,13 @@
         <v>45881.56922453704</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C94" s="7">
         <v>25603</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E94" s="7">
         <v>11</v>
@@ -5687,13 +5684,13 @@
         <v>45881.56925925926</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C95" s="11">
         <v>25731</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E95" s="11">
         <v>11</v>
@@ -5705,7 +5702,7 @@
         <v>209</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>17</v>
@@ -5723,19 +5720,19 @@
         <v>45881.56927083333</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C96" s="7">
         <v>26020</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -5766,10 +5763,10 @@
         <v>136</v>
       </c>
       <c r="G97" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>374</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>263</v>
@@ -5781,7 +5778,7 @@
         <v>227</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
@@ -5789,13 +5786,13 @@
         <v>45881.56935185185</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="7">
         <v>25568</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E98" s="7">
         <v>11</v>
@@ -5815,13 +5812,13 @@
         <v>45881.569375</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C99" s="11">
         <v>25483</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E99" s="11">
         <v>11</v>
@@ -5842,10 +5839,10 @@
         <v>33</v>
       </c>
       <c r="K99" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L99" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="L99" s="13" t="s">
-        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
@@ -5906,7 +5903,7 @@
         <v>96</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="10" t="s">
@@ -5927,7 +5924,7 @@
         <v>45881.56943287037</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C102" s="7">
         <v>25942</v>
@@ -5965,13 +5962,13 @@
         <v>45881.569444444445</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C103" s="11">
         <v>25653</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E103" s="11">
         <v>11</v>
@@ -5983,7 +5980,7 @@
         <v>50</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>139</v>
@@ -6001,25 +5998,25 @@
         <v>45881.56945601852</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C104" s="7">
         <v>26002</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E104" s="7">
         <v>10</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>52</v>
@@ -6031,7 +6028,7 @@
         <v>102</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
@@ -6039,13 +6036,13 @@
         <v>45881.56947916667</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C105" s="11">
         <v>25598</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E105" s="11">
         <v>11</v>
@@ -6077,13 +6074,13 @@
         <v>45881.56951388889</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C106" s="7">
         <v>26055</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E106" s="7">
         <v>11</v>
@@ -6101,7 +6098,7 @@
         <v>247</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>75</v>
@@ -6113,13 +6110,13 @@
         <v>45881.56953703704</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="11">
         <v>25326</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E107" s="11">
         <v>12</v>
@@ -6140,7 +6137,7 @@
         <v>119</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L107" s="13" t="s">
         <v>43</v>
@@ -6151,13 +6148,13 @@
         <v>45881.56957175926</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C108" s="7">
         <v>25600</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E108" s="7">
         <v>11</v>
@@ -6169,17 +6166,17 @@
         <v>79</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="L108" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
@@ -6202,20 +6199,20 @@
         <v>38</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>258</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="L109" s="13" t="s">
         <v>405</v>
-      </c>
-      <c r="L109" s="13" t="s">
-        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
@@ -6223,13 +6220,13 @@
         <v>45881.56962962963</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C110" s="7">
         <v>25737</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -6238,7 +6235,7 @@
         <v>189</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>25</v>
@@ -6248,10 +6245,10 @@
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="L110" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
@@ -6259,25 +6256,25 @@
         <v>45881.56964120371</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C111" s="11">
         <v>25228</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E111" s="11">
         <v>12</v>
       </c>
       <c r="F111" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="H111" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>416</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>263</v>
@@ -6341,7 +6338,7 @@
         <v>26050</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E113" s="11">
         <v>10</v>
@@ -6411,19 +6408,19 @@
         <v>45881.56982638889</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C115" s="11">
         <v>25254</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E115" s="11">
         <v>12</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>287</v>
@@ -6439,7 +6436,7 @@
         <v>42</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
@@ -6447,13 +6444,13 @@
         <v>45881.56988425926</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C116" s="7">
         <v>25368</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -6462,17 +6459,17 @@
         <v>174</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>288</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>140</v>
@@ -6551,7 +6548,7 @@
         <v>27</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
@@ -6574,7 +6571,7 @@
         <v>174</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>143</v>
@@ -6589,7 +6586,7 @@
         <v>175</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
@@ -6597,13 +6594,13 @@
         <v>45881.56993055555</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C120" s="7">
         <v>25651</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E120" s="7">
         <v>11</v>
@@ -6615,7 +6612,7 @@
         <v>209</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>26</v>
@@ -6635,13 +6632,13 @@
         <v>45881.56997685185</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C121" s="11">
         <v>25656</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E121" s="11">
         <v>11</v>
@@ -6665,7 +6662,7 @@
         <v>59</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
@@ -6703,7 +6700,7 @@
         <v>167</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
@@ -6741,7 +6738,7 @@
         <v>102</v>
       </c>
       <c r="L123" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
@@ -6749,13 +6746,13 @@
         <v>45881.57005787037</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C124" s="7">
         <v>25878</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E124" s="7">
         <v>10</v>
@@ -6787,13 +6784,13 @@
         <v>45881.57015046296</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C125" s="11">
         <v>25524</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E125" s="11">
         <v>11</v>
@@ -6808,10 +6805,10 @@
         <v>100</v>
       </c>
       <c r="I125" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J125" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="J125" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="K125" s="10" t="s">
         <v>152</v>
@@ -6825,13 +6822,13 @@
         <v>45881.57030092592</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C126" s="7">
         <v>25588</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E126" s="7">
         <v>11</v>
@@ -6840,7 +6837,7 @@
         <v>63</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>16</v>
@@ -6855,7 +6852,7 @@
         <v>34</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
@@ -6863,13 +6860,13 @@
         <v>45881.57030092592</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C127" s="11">
         <v>25577</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E127" s="11">
         <v>11</v>
@@ -6881,7 +6878,7 @@
         <v>32</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>26</v>
@@ -6949,13 +6946,13 @@
         <v>12</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>183</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>185</v>
@@ -6981,7 +6978,7 @@
         <v>25552</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E130" s="7">
         <v>11</v>
@@ -7013,13 +7010,13 @@
         <v>45881.570555555554</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C131" s="11">
         <v>25160</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E131" s="11">
         <v>12</v>
@@ -7028,22 +7025,22 @@
         <v>166</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>210</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K131" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
@@ -7051,13 +7048,13 @@
         <v>45881.5705787037</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C132" s="7">
         <v>25709</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E132" s="7">
         <v>11</v>
@@ -7081,7 +7078,7 @@
         <v>102</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
@@ -7127,13 +7124,13 @@
         <v>45881.570763888885</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C134" s="7">
         <v>25299</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E134" s="7">
         <v>12</v>
@@ -7145,7 +7142,7 @@
         <v>57</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>17</v>
@@ -7157,7 +7154,7 @@
         <v>42</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
@@ -7165,19 +7162,19 @@
         <v>45881.571122685185</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C135" s="11">
         <v>26021</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E135" s="11">
         <v>10</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>57</v>
@@ -7203,22 +7200,22 @@
         <v>45881.57134259259</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C136" s="7">
         <v>25425</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E136" s="7">
         <v>12</v>
       </c>
       <c r="F136" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -7250,10 +7247,10 @@
         <v>174</v>
       </c>
       <c r="G137" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H137" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>374</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>52</v>
@@ -7265,7 +7262,7 @@
         <v>42</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
@@ -7273,19 +7270,19 @@
         <v>45881.57144675926</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C138" s="7">
         <v>26036</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E138" s="7">
         <v>10</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>57</v>
@@ -7301,7 +7298,7 @@
         <v>167</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
@@ -7345,13 +7342,13 @@
         <v>45881.57165509259</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C140" s="7">
         <v>25502</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E140" s="7">
         <v>11</v>
@@ -7381,13 +7378,13 @@
         <v>45881.57173611111</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C141" s="11">
         <v>25849</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E141" s="11">
         <v>10</v>
@@ -7419,13 +7416,13 @@
         <v>45881.57181712963</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C142" s="7">
         <v>25870</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -7443,7 +7440,7 @@
         <v>214</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>167</v>
@@ -7457,19 +7454,19 @@
         <v>45881.571875</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C143" s="11">
         <v>25924</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E143" s="11">
         <v>10</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>57</v>
@@ -7478,7 +7475,7 @@
         <v>58</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J143" s="10" t="s">
         <v>127</v>
@@ -7533,13 +7530,13 @@
         <v>45881.572800925926</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C145" s="11">
         <v>25279</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E145" s="11">
         <v>12</v>
@@ -7557,7 +7554,7 @@
         <v>167</v>
       </c>
       <c r="L145" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
@@ -7565,19 +7562,19 @@
         <v>45881.573425925926</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C146" s="7">
         <v>25330</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E146" s="7">
         <v>12</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>70</v>
@@ -7593,7 +7590,7 @@
         <v>42</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
@@ -7601,25 +7598,25 @@
         <v>45881.57472222222</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C147" s="11">
         <v>25383</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E147" s="11">
         <v>12</v>
       </c>
       <c r="F147" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H147" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="I147" s="10" t="s">
         <v>214</v>
@@ -7628,10 +7625,10 @@
         <v>46</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L147" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
@@ -7639,13 +7636,13 @@
         <v>45881.57534722222</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C148" s="7">
         <v>25245</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E148" s="7">
         <v>12</v>
@@ -7654,7 +7651,7 @@
         <v>170</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>138</v>
@@ -7664,7 +7661,7 @@
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L148" s="8" t="s">
         <v>211</v>
@@ -7705,7 +7702,7 @@
         <v>75</v>
       </c>
       <c r="L149" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
@@ -7713,19 +7710,19 @@
         <v>45881.602164351854</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C150" s="7">
         <v>25702</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E150" s="7">
         <v>11</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>24</v>
@@ -7751,13 +7748,13 @@
         <v>45882.49980324074</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C151" s="11">
         <v>25267</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E151" s="11">
         <v>12</v>
@@ -7766,7 +7763,7 @@
         <v>38</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H151" s="10" t="s">
         <v>86</v>
@@ -7776,10 +7773,10 @@
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L151" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
@@ -7811,7 +7808,7 @@
         <v>41</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>42</v>
@@ -7825,13 +7822,13 @@
         <v>45882.81219907408</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C153" s="16">
         <v>25699</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E153" s="16">
         <v>11</v>
@@ -7843,7 +7840,7 @@
         <v>70</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I153" s="15" t="s">
         <v>17</v>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -1261,7 +1261,7 @@
         <v>Farenheit 451, Red Badge of Courage, Romeo and Juliet, Cannery Row, Great Expectations, Julius Caesar, Antigone, Lord of the Flies, Cat's Cradle, The Great Gatsby, Moby Dick</v>
       </c>
       <c r="M21" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
     </row>
     <row r="22">

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="584">
   <si>
     <t>Timestamp</t>
   </si>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t>Joshua Truman</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>25370@dlshs.org</t>
@@ -1776,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,6 +1784,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1820,13 +1823,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2199,7 +2202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
       <c r="A2" s="3">
         <v>45881.57076418982</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
       <c r="A3" s="3">
         <v>45881.573427048614</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
       <c r="A4" s="3">
         <v>45881.57534891204</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
       <c r="A5" s="3">
         <v>45868.69230572917</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
       <c r="A6" s="3">
         <v>45881.571624178236</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
       <c r="A7" s="3">
         <v>45881.57055289352</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
       <c r="A8" s="3">
         <v>45881.56893354167</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
       <c r="A9" s="3">
         <v>45881.56828864584</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
       <c r="A10" s="3">
         <v>45872.82532210648</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
       <c r="A11" s="3">
         <v>45881.568625</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
       <c r="A12" s="3">
         <v>45881.56871547454</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
       <c r="A13" s="3">
         <v>45881.574726921295</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
       <c r="A14" s="3">
         <v>45881.572800208334</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
       <c r="A15" s="3">
         <v>45881.571341076386</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
       <c r="A16" s="3">
         <v>45869.418879687495</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
       <c r="A17" s="3">
         <v>45881.570380289355</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
       <c r="A18" s="3">
         <v>45873.46861923611</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
       <c r="A19" s="3">
         <v>45881.56961586805</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
       <c r="A20" s="3">
         <v>45881.56963708333</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>45881.569829375</v>
       </c>
@@ -2990,27 +2993,27 @@
         <v>74</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
       <c r="A22" s="3">
         <v>45868.70807850694</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>18</v>
@@ -3019,46 +3022,46 @@
         <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
       <c r="A23" s="3">
         <v>45868.70828388889</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>82</v>
@@ -3073,18 +3076,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
       <c r="A24" s="3">
         <v>45881.56903741898</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -3093,7 +3096,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>88</v>
@@ -3102,46 +3105,46 @@
         <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="3">
         <v>45869.642239305555</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>151</v>
@@ -3151,18 +3154,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
       <c r="A26" s="3">
         <v>45869.761106412036</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -3171,13 +3174,13 @@
         <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>31</v>
@@ -3186,24 +3189,24 @@
         <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="3">
         <v>45868.69412622685</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -3212,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>30</v>
@@ -3221,37 +3224,37 @@
         <v>143</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="3">
         <v>45881.586467939815</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>30</v>
@@ -3272,18 +3275,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
       <c r="A29" s="3">
         <v>45869.79976072916</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -3292,10 +3295,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>143</v>
@@ -3313,30 +3316,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
       <c r="A30" s="3">
         <v>45882.49980883102</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>150</v>
@@ -3348,33 +3351,33 @@
         <v>22</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
       <c r="A31" s="3">
         <v>45881.56988767361</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>135</v>
@@ -3386,31 +3389,31 @@
         <v>56</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="3">
         <v>45881.56953898148</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>93</v>
@@ -3434,18 +3437,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
       <c r="A33" s="3">
         <v>45881.56963248843</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -3454,7 +3457,7 @@
         <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>135</v>
@@ -3469,36 +3472,36 @@
         <v>56</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
       <c r="A34" s="3">
         <v>45870.48394994213</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>20</v>
@@ -3516,30 +3519,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
       <c r="A35" s="3">
         <v>45880.968980509264</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>130</v>
@@ -3548,40 +3551,40 @@
         <v>96</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
       <c r="A36" s="3">
         <v>45881.569639803245</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>47</v>
@@ -3594,18 +3597,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
       <c r="A37" s="3">
         <v>45881.56840907407</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -3614,13 +3617,13 @@
         <v>69</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>82</v>
@@ -3629,63 +3632,63 @@
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
       <c r="A38" s="3">
         <v>45868.74143219907</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
       <c r="A39" s="3">
         <v>45881.56831346065</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3694,10 +3697,10 @@
         <v>69</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>143</v>
@@ -3706,31 +3709,31 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
       <c r="A40" s="3">
         <v>45881.56903642361</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>62</v>
@@ -3739,84 +3742,84 @@
         <v>30</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
       <c r="A41" s="3">
         <v>45881.56875569445</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="M41" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
       <c r="A42" s="3">
         <v>45881.56856453704</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>20</v>
@@ -3825,7 +3828,7 @@
         <v>82</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>110</v>
@@ -3834,30 +3837,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
       <c r="A43" s="3">
         <v>45881.56912825232</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>20</v>
@@ -3869,27 +3872,27 @@
         <v>56</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
       <c r="A44" s="3">
         <v>45868.686772141205</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>101</v>
@@ -3901,39 +3904,39 @@
         <v>102</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="M44" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
       <c r="A45" s="3">
         <v>45881.56886318287</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>121</v>
@@ -3942,84 +3945,84 @@
         <v>102</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="M45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
       <c r="A46" s="3">
         <v>45868.690425312496</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
       <c r="A47" s="3">
         <v>45881.5688353588</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>143</v>
@@ -4031,116 +4034,116 @@
         <v>56</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
       <c r="A48" s="3">
         <v>45881.56871628472</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
       <c r="A49" s="3">
         <v>45868.687782175926</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="3">
         <v>45882.5005039699</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>155</v>
@@ -4149,28 +4152,28 @@
         <v>56</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="3">
         <v>45870.86369550926</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
@@ -4179,10 +4182,10 @@
         <v>121</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>31</v>
@@ -4191,39 +4194,39 @@
         <v>22</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
       <c r="A52" s="3">
         <v>45868.727790578705</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>96</v>
@@ -4232,36 +4235,36 @@
         <v>56</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="3">
         <v>45881.5694214699</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>20</v>
@@ -4273,27 +4276,27 @@
         <v>56</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="3">
         <v>45882.812197638894</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>51</v>
@@ -4302,43 +4305,43 @@
         <v>62</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="3">
         <v>45868.68770275463</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>102</v>
@@ -4350,42 +4353,42 @@
         <v>82</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="M55" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="3">
         <v>45881.56874350694</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>82</v>
@@ -4394,39 +4397,39 @@
         <v>56</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="3">
         <v>45881.56842591435</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>31</v>
@@ -4435,27 +4438,27 @@
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="3">
         <v>45881.56917645833</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>101</v>
@@ -4464,78 +4467,78 @@
         <v>62</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="3">
         <v>45881.60215975695</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>150</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" hidden="1">
       <c r="A60" s="3">
         <v>45881.570295868056</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>141</v>
@@ -4544,89 +4547,89 @@
         <v>62</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K60" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="M60" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" hidden="1">
       <c r="A61" s="3">
         <v>45876.68260421296</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" hidden="1">
       <c r="A62" s="3">
         <v>45879.35835980324</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>89</v>
@@ -4635,30 +4638,30 @@
         <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" hidden="1">
       <c r="A63" s="3">
         <v>45872.47439283565</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>69</v>
@@ -4667,121 +4670,121 @@
         <v>62</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="M63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" hidden="1">
       <c r="A64" s="3">
         <v>45881.57142788194</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="M64" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
       <c r="A65" s="3">
         <v>45868.688000775466</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="M65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
       <c r="A66" s="3">
         <v>45881.56835927084</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>101</v>
@@ -4790,120 +4793,120 @@
         <v>121</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" hidden="1">
       <c r="A67" s="3">
         <v>45881.56892445602</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" hidden="1">
       <c r="A68" s="3">
         <v>45880.43558981481</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" hidden="1">
       <c r="A69" s="3">
         <v>45873.75065449074</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -4915,62 +4918,62 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" hidden="1">
       <c r="A70" s="3">
         <v>45881.56929421297</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" hidden="1">
       <c r="A71" s="3">
         <v>45881.570305</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>101</v>
@@ -4988,30 +4991,30 @@
         <v>82</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" hidden="1">
       <c r="A72" s="3">
         <v>45868.69536915509</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>35</v>
@@ -5029,42 +5032,42 @@
         <v>82</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" hidden="1">
       <c r="A73" s="3">
         <v>45868.68835033565</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>131</v>
@@ -5073,42 +5076,42 @@
         <v>56</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" hidden="1">
       <c r="A74" s="3">
         <v>45881.56944065972</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -5116,62 +5119,62 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
       <c r="A75" s="3">
         <v>45881.56937518519</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="M75" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" hidden="1">
       <c r="A76" s="3">
         <v>45881.5701524537</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>69</v>
@@ -5183,48 +5186,48 @@
         <v>102</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" hidden="1">
       <c r="A77" s="3">
         <v>45869.37997310185</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>82</v>
@@ -5233,30 +5236,30 @@
         <v>56</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" hidden="1">
       <c r="A78" s="3">
         <v>45881.56948111111</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>62</v>
@@ -5265,84 +5268,84 @@
         <v>102</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" hidden="1">
       <c r="A79" s="3">
         <v>45868.6894153125</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I79" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" hidden="1">
       <c r="A80" s="3">
         <v>45881.56993518518</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>89</v>
@@ -5351,39 +5354,39 @@
         <v>131</v>
       </c>
       <c r="K80" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" hidden="1">
       <c r="A81" s="3">
         <v>45868.721243356486</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>89</v>
@@ -5395,236 +5398,236 @@
         <v>56</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" hidden="1">
       <c r="A82" s="3">
         <v>45881.569264791666</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" hidden="1">
       <c r="A83" s="3">
         <v>45869.052128923606</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" hidden="1">
       <c r="A84" s="3">
         <v>45881.569350624995</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" hidden="1">
       <c r="A85" s="3">
         <v>45869.44268565973</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" hidden="1">
       <c r="A86" s="3">
         <v>45881.56903804398</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" hidden="1">
       <c r="A87" s="3">
         <v>45868.96676101851</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5633,21 +5636,21 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" hidden="1">
       <c r="A88" s="3">
         <v>45881.57045068287</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>69</v>
@@ -5656,48 +5659,48 @@
         <v>121</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" hidden="1">
       <c r="A89" s="3">
         <v>45868.72135086806</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>20</v>
@@ -5706,42 +5709,42 @@
         <v>82</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" hidden="1">
       <c r="A90" s="3">
         <v>45873.01043623843</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>82</v>
@@ -5750,83 +5753,83 @@
         <v>103</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" hidden="1">
       <c r="A91" s="3">
         <v>45881.569903310185</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" hidden="1">
       <c r="A92" s="3">
         <v>45881.57057813657</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>110</v>
@@ -5836,24 +5839,24 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" hidden="1">
       <c r="A93" s="3">
         <v>45868.69580913194</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>121</v>
@@ -5862,36 +5865,36 @@
         <v>102</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" hidden="1">
       <c r="A94" s="3">
         <v>45868.709814155096</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>101</v>
@@ -5900,7 +5903,7 @@
         <v>18</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>95</v>
@@ -5918,30 +5921,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" hidden="1">
       <c r="A95" s="3">
         <v>45881.569515208335</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>20</v>
@@ -5950,36 +5953,36 @@
         <v>82</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" hidden="1">
       <c r="A96" s="3">
         <v>45868.69179887732</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5990,30 +5993,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" hidden="1">
       <c r="A97" s="3">
         <v>45881.5721944213</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>95</v>
@@ -6022,30 +6025,30 @@
         <v>82</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" hidden="1">
       <c r="A98" s="3">
         <v>45881.56850233796</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>101</v>
@@ -6054,7 +6057,7 @@
         <v>121</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>20</v>
@@ -6066,77 +6069,77 @@
         <v>56</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" hidden="1">
       <c r="A99" s="3">
         <v>45868.68854274305</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" hidden="1">
       <c r="A100" s="3">
         <v>45881.56840355324</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>20</v>
@@ -6145,39 +6148,39 @@
         <v>96</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" hidden="1">
       <c r="A101" s="3">
         <v>45881.56957226852</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>20</v>
@@ -6186,78 +6189,78 @@
         <v>96</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" hidden="1">
       <c r="A102" s="3">
         <v>45868.689069201384</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" hidden="1">
       <c r="A103" s="3">
         <v>45881.56990998842</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>20</v>
@@ -6269,36 +6272,36 @@
         <v>103</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" hidden="1">
       <c r="A104" s="3">
         <v>45881.57165358796</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>20</v>
@@ -6307,74 +6310,74 @@
         <v>96</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" hidden="1">
       <c r="A105" s="3">
         <v>45881.56921890046</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H105" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" hidden="1">
       <c r="A106" s="3">
         <v>45868.688031087964</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>18</v>
@@ -6383,10 +6386,10 @@
         <v>20</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -6394,30 +6397,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" hidden="1">
       <c r="A107" s="3">
         <v>45881.56910178241</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>20</v>
@@ -6426,7 +6429,7 @@
         <v>82</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>110</v>
@@ -6435,21 +6438,21 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" hidden="1">
       <c r="A108" s="3">
         <v>45881.56997237269</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>101</v>
@@ -6458,7 +6461,7 @@
         <v>18</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>20</v>
@@ -6467,7 +6470,7 @@
         <v>82</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>110</v>
@@ -6476,39 +6479,39 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" hidden="1">
       <c r="A109" s="3">
         <v>45880.641362002316</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>110</v>
@@ -6517,39 +6520,39 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" hidden="1">
       <c r="A110" s="3">
         <v>45881.57002304398</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>110</v>
@@ -6558,30 +6561,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" hidden="1">
       <c r="A111" s="3">
         <v>45881.571817199074</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>20</v>
@@ -6590,37 +6593,37 @@
         <v>103</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" hidden="1">
       <c r="A112" s="3">
         <v>45872.91292269676</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>20</v>
@@ -6632,39 +6635,39 @@
         <v>103</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" hidden="1">
       <c r="A113" s="3">
         <v>45881.569802060185</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>96</v>
@@ -6673,118 +6676,118 @@
         <v>103</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" hidden="1">
       <c r="A114" s="3">
         <v>45871.74904130787</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" hidden="1">
       <c r="A115" s="3">
         <v>45881.57066960648</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" hidden="1">
       <c r="A116" s="3">
         <v>45870.60357907407</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>20</v>
@@ -6793,30 +6796,30 @@
         <v>82</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" hidden="1">
       <c r="A117" s="3">
         <v>45881.56973765046</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>101</v>
@@ -6825,7 +6828,7 @@
         <v>18</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>20</v>
@@ -6837,36 +6840,36 @@
         <v>103</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" hidden="1">
       <c r="A118" s="3">
         <v>45868.688675150464</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>20</v>
@@ -6875,7 +6878,7 @@
         <v>82</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>110</v>
@@ -6884,71 +6887,71 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" hidden="1">
       <c r="A119" s="3">
         <v>45881.569275208334</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" hidden="1">
       <c r="A120" s="3">
         <v>45872.718947511574</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>20</v>
@@ -6957,39 +6960,39 @@
         <v>82</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" hidden="1">
       <c r="A121" s="3">
         <v>45881.56850517361</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>20</v>
@@ -6998,10 +7001,10 @@
         <v>82</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>24</v>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="585">
   <si>
     <t>Timestamp</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Joshua Truman</t>
+  </si>
+  <si>
+    <t>Farenheit 451, Red Badge of Courage, Romeo and Juliet, Cannery Row, Great Expectations, Julius Caesar, Antigone, Lord of the Flies, Cat's Cradle, The Great Gatsby, Moby Dick</t>
   </si>
   <si>
     <t>25370@dlshs.org</t>
@@ -1773,19 +1776,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1821,16 +1818,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2146,22 +2140,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +2196,8 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>45881.57076418982</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2243,8 +2237,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
-      <c r="A3" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
         <v>45881.573427048614</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2282,8 +2276,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
-      <c r="A4" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
         <v>45881.57534891204</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2321,8 +2315,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
-      <c r="A5" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
         <v>45868.69230572917</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2360,8 +2354,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
-      <c r="A6" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
         <v>45881.571624178236</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2401,8 +2395,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
-      <c r="A7" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
         <v>45881.57055289352</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2442,8 +2436,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
-      <c r="A8" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1">
         <v>45881.56893354167</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2483,8 +2477,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
-      <c r="A9" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1">
         <v>45881.56828864584</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2524,8 +2518,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
-      <c r="A10" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1">
         <v>45872.82532210648</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2565,8 +2559,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
-      <c r="A11" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1">
         <v>45881.568625</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2606,8 +2600,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
-      <c r="A12" s="3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1">
         <v>45881.56871547454</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2641,8 +2635,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
-      <c r="A13" s="3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1">
         <v>45881.574726921295</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2676,8 +2670,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
-      <c r="A14" s="3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1">
         <v>45881.572800208334</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2717,8 +2711,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
-      <c r="A15" s="3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1">
         <v>45881.571341076386</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2756,8 +2750,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
-      <c r="A16" s="3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1">
         <v>45869.418879687495</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2797,8 +2791,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
-      <c r="A17" s="3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1">
         <v>45881.570380289355</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2836,8 +2830,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
-      <c r="A18" s="3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1">
         <v>45873.46861923611</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2873,8 +2867,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
-      <c r="A19" s="3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1">
         <v>45881.56961586805</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2914,8 +2908,8 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
-      <c r="A20" s="3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1">
         <v>45881.56963708333</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2956,7 +2950,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>45881.569829375</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2990,30 +2984,30 @@
         <v>47</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
-      <c r="A22" s="3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1">
         <v>45868.70807850694</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>18</v>
@@ -3022,46 +3016,46 @@
         <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
-      <c r="A23" s="3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1">
         <v>45868.70828388889</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>82</v>
@@ -3076,18 +3070,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
-      <c r="A24" s="3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1">
         <v>45881.56903741898</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -3096,7 +3090,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>88</v>
@@ -3105,46 +3099,46 @@
         <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
-      <c r="A25" s="3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1">
         <v>45869.642239305555</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>151</v>
@@ -3154,18 +3148,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
-      <c r="A26" s="3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1">
         <v>45869.761106412036</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -3174,13 +3168,13 @@
         <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>31</v>
@@ -3189,24 +3183,24 @@
         <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
-      <c r="A27" s="3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1">
         <v>45868.69412622685</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -3215,7 +3209,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>30</v>
@@ -3224,37 +3218,37 @@
         <v>143</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
-      <c r="A28" s="3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="1">
         <v>45881.586467939815</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>30</v>
@@ -3275,18 +3269,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
-      <c r="A29" s="3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="1">
         <v>45869.79976072916</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -3295,10 +3289,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>143</v>
@@ -3316,30 +3310,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
-      <c r="A30" s="3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1">
         <v>45882.49980883102</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>150</v>
@@ -3351,33 +3345,33 @@
         <v>22</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
-      <c r="A31" s="3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="1">
         <v>45881.56988767361</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>135</v>
@@ -3389,31 +3383,31 @@
         <v>56</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
-      <c r="A32" s="3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="1">
         <v>45881.56953898148</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>93</v>
@@ -3437,18 +3431,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
-      <c r="A33" s="3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1">
         <v>45881.56963248843</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -3457,7 +3451,7 @@
         <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>135</v>
@@ -3472,36 +3466,36 @@
         <v>56</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
-      <c r="A34" s="3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1">
         <v>45870.48394994213</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>20</v>
@@ -3519,30 +3513,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
-      <c r="A35" s="3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="1">
         <v>45880.968980509264</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>130</v>
@@ -3551,40 +3545,40 @@
         <v>96</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
-      <c r="A36" s="3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="1">
         <v>45881.569639803245</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>47</v>
@@ -3597,18 +3591,18 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
-      <c r="A37" s="3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1">
         <v>45881.56840907407</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -3617,13 +3611,13 @@
         <v>69</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>82</v>
@@ -3632,63 +3626,63 @@
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
-      <c r="A38" s="3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="1">
         <v>45868.74143219907</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
-      <c r="A39" s="3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="1">
         <v>45881.56831346065</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3697,10 +3691,10 @@
         <v>69</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>143</v>
@@ -3709,31 +3703,31 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
-      <c r="A40" s="3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="1">
         <v>45881.56903642361</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>62</v>
@@ -3742,84 +3736,84 @@
         <v>30</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
-      <c r="A41" s="3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="1">
         <v>45881.56875569445</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
-      <c r="A42" s="3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="1">
         <v>45881.56856453704</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>20</v>
@@ -3828,7 +3822,7 @@
         <v>82</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>110</v>
@@ -3837,30 +3831,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
-      <c r="A43" s="3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="1">
         <v>45881.56912825232</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>20</v>
@@ -3872,27 +3866,27 @@
         <v>56</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
-      <c r="A44" s="3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="1">
         <v>45868.686772141205</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>101</v>
@@ -3904,39 +3898,39 @@
         <v>102</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
-      <c r="A45" s="3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="1">
         <v>45881.56886318287</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>121</v>
@@ -3945,84 +3939,84 @@
         <v>102</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
-      <c r="A46" s="3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="1">
         <v>45868.690425312496</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
-      <c r="A47" s="3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="1">
         <v>45881.5688353588</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>143</v>
@@ -4034,116 +4028,116 @@
         <v>56</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
-      <c r="A48" s="3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="1">
         <v>45881.56871628472</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
-      <c r="A49" s="3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="1">
         <v>45868.687782175926</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
-      <c r="A50" s="3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="1">
         <v>45882.5005039699</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>155</v>
@@ -4152,28 +4146,28 @@
         <v>56</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
-      <c r="A51" s="3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1">
         <v>45870.86369550926</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
@@ -4182,10 +4176,10 @@
         <v>121</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>31</v>
@@ -4194,39 +4188,39 @@
         <v>22</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="1">
+        <v>45868.727790578705</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
-      <c r="A52" s="3">
-        <v>45868.727790578705</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>96</v>
@@ -4235,36 +4229,36 @@
         <v>56</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
-      <c r="A53" s="3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="1">
         <v>45881.5694214699</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>20</v>
@@ -4276,27 +4270,27 @@
         <v>56</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
-      <c r="A54" s="3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="1">
         <v>45882.812197638894</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>51</v>
@@ -4305,43 +4299,43 @@
         <v>62</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
-      <c r="A55" s="3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="1">
         <v>45868.68770275463</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>102</v>
@@ -4353,42 +4347,42 @@
         <v>82</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
-      <c r="A56" s="3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="1">
         <v>45881.56874350694</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>82</v>
@@ -4397,39 +4391,39 @@
         <v>56</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
-      <c r="A57" s="3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="1">
         <v>45881.56842591435</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>31</v>
@@ -4438,27 +4432,27 @@
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
-      <c r="A58" s="3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="1">
         <v>45881.56917645833</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>101</v>
@@ -4467,78 +4461,78 @@
         <v>62</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
-      <c r="A59" s="3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="1">
         <v>45881.60215975695</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>150</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" hidden="1">
-      <c r="A60" s="3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="1">
         <v>45881.570295868056</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>141</v>
@@ -4547,89 +4541,89 @@
         <v>62</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" hidden="1">
-      <c r="A61" s="3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="1">
         <v>45876.68260421296</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" hidden="1">
-      <c r="A62" s="3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="1">
         <v>45879.35835980324</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>89</v>
@@ -4638,30 +4632,30 @@
         <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" hidden="1">
-      <c r="A63" s="3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="1">
         <v>45872.47439283565</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>69</v>
@@ -4670,121 +4664,121 @@
         <v>62</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" hidden="1">
-      <c r="A64" s="3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="1">
         <v>45881.57142788194</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
-      <c r="A65" s="3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="1">
         <v>45868.688000775466</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
-      <c r="A66" s="3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="1">
         <v>45881.56835927084</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>101</v>
@@ -4793,120 +4787,120 @@
         <v>121</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" hidden="1">
-      <c r="A67" s="3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="1">
         <v>45881.56892445602</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" hidden="1">
-      <c r="A68" s="3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="1">
         <v>45880.43558981481</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" hidden="1">
-      <c r="A69" s="3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="1">
         <v>45873.75065449074</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -4918,62 +4912,62 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" hidden="1">
-      <c r="A70" s="3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="1">
         <v>45881.56929421297</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" hidden="1">
-      <c r="A71" s="3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="1">
         <v>45881.570305</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>101</v>
@@ -4991,30 +4985,30 @@
         <v>82</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" hidden="1">
-      <c r="A72" s="3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="1">
         <v>45868.69536915509</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>35</v>
@@ -5032,42 +5026,42 @@
         <v>82</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" hidden="1">
-      <c r="A73" s="3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="1">
         <v>45868.68835033565</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>131</v>
@@ -5076,42 +5070,42 @@
         <v>56</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="1">
+        <v>45881.56944065972</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" hidden="1">
-      <c r="A74" s="3">
-        <v>45881.56944065972</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -5119,62 +5113,62 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
-      <c r="A75" s="3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="1">
         <v>45881.56937518519</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" hidden="1">
-      <c r="A76" s="3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="1">
         <v>45881.5701524537</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>69</v>
@@ -5186,48 +5180,48 @@
         <v>102</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" hidden="1">
-      <c r="A77" s="3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="1">
         <v>45869.37997310185</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>82</v>
@@ -5236,30 +5230,30 @@
         <v>56</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" hidden="1">
-      <c r="A78" s="3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="1">
         <v>45881.56948111111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>62</v>
@@ -5268,84 +5262,84 @@
         <v>102</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" hidden="1">
-      <c r="A79" s="3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="1">
         <v>45868.6894153125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" hidden="1">
-      <c r="A80" s="3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="1">
         <v>45881.56993518518</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>89</v>
@@ -5354,39 +5348,39 @@
         <v>131</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" hidden="1">
-      <c r="A81" s="3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="1">
         <v>45868.721243356486</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>89</v>
@@ -5398,236 +5392,236 @@
         <v>56</v>
       </c>
       <c r="L81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="1">
+        <v>45881.569264791666</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" hidden="1">
-      <c r="A82" s="3">
-        <v>45881.569264791666</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" hidden="1">
-      <c r="A83" s="3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="1">
         <v>45869.052128923606</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" hidden="1">
-      <c r="A84" s="3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="1">
         <v>45881.569350624995</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" hidden="1">
-      <c r="A85" s="3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="1">
         <v>45869.44268565973</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" hidden="1">
-      <c r="A86" s="3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="1">
         <v>45881.56903804398</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" hidden="1">
-      <c r="A87" s="3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="1">
         <v>45868.96676101851</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5636,21 +5630,21 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" hidden="1">
-      <c r="A88" s="3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="1">
         <v>45881.57045068287</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>69</v>
@@ -5659,48 +5653,48 @@
         <v>121</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" hidden="1">
-      <c r="A89" s="3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="1">
         <v>45868.72135086806</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>20</v>
@@ -5709,42 +5703,42 @@
         <v>82</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" hidden="1">
-      <c r="A90" s="3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="1">
         <v>45873.01043623843</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>82</v>
@@ -5753,83 +5747,83 @@
         <v>103</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" hidden="1">
-      <c r="A91" s="3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="1">
         <v>45881.569903310185</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" hidden="1">
-      <c r="A92" s="3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="1">
         <v>45881.57057813657</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>110</v>
@@ -5839,24 +5833,24 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" hidden="1">
-      <c r="A93" s="3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="1">
         <v>45868.69580913194</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>121</v>
@@ -5865,36 +5859,36 @@
         <v>102</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" hidden="1">
-      <c r="A94" s="3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="1">
         <v>45868.709814155096</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>101</v>
@@ -5903,7 +5897,7 @@
         <v>18</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>95</v>
@@ -5921,30 +5915,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" hidden="1">
-      <c r="A95" s="3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="1">
         <v>45881.569515208335</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>20</v>
@@ -5953,36 +5947,36 @@
         <v>82</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" hidden="1">
-      <c r="A96" s="3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="1">
         <v>45868.69179887732</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5993,30 +5987,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" hidden="1">
-      <c r="A97" s="3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="1">
         <v>45881.5721944213</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>95</v>
@@ -6025,30 +6019,30 @@
         <v>82</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" hidden="1">
-      <c r="A98" s="3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="1">
         <v>45881.56850233796</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>101</v>
@@ -6057,7 +6051,7 @@
         <v>121</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>20</v>
@@ -6069,77 +6063,77 @@
         <v>56</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" hidden="1">
-      <c r="A99" s="3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="1">
         <v>45868.68854274305</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" hidden="1">
-      <c r="A100" s="3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="1">
         <v>45881.56840355324</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>20</v>
@@ -6148,39 +6142,39 @@
         <v>96</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" hidden="1">
-      <c r="A101" s="3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="1">
         <v>45881.56957226852</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>20</v>
@@ -6189,78 +6183,78 @@
         <v>96</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" hidden="1">
-      <c r="A102" s="3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="1">
         <v>45868.689069201384</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" hidden="1">
-      <c r="A103" s="3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="1">
         <v>45881.56990998842</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>20</v>
@@ -6272,36 +6266,36 @@
         <v>103</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" hidden="1">
-      <c r="A104" s="3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="1">
         <v>45881.57165358796</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>20</v>
@@ -6310,74 +6304,74 @@
         <v>96</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" hidden="1">
-      <c r="A105" s="3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="1">
         <v>45881.56921890046</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" hidden="1">
-      <c r="A106" s="3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="1">
         <v>45868.688031087964</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>18</v>
@@ -6386,10 +6380,10 @@
         <v>20</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -6397,30 +6391,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" hidden="1">
-      <c r="A107" s="3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="1">
         <v>45881.56910178241</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>20</v>
@@ -6429,7 +6423,7 @@
         <v>82</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>110</v>
@@ -6438,21 +6432,21 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" hidden="1">
-      <c r="A108" s="3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="1">
         <v>45881.56997237269</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>101</v>
@@ -6461,7 +6455,7 @@
         <v>18</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>20</v>
@@ -6470,7 +6464,7 @@
         <v>82</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>110</v>
@@ -6479,39 +6473,39 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" hidden="1">
-      <c r="A109" s="3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="1">
         <v>45880.641362002316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>110</v>
@@ -6520,39 +6514,39 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" hidden="1">
-      <c r="A110" s="3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="1">
         <v>45881.57002304398</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>110</v>
@@ -6561,30 +6555,30 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" hidden="1">
-      <c r="A111" s="3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="1">
         <v>45881.571817199074</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>20</v>
@@ -6593,37 +6587,37 @@
         <v>103</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" hidden="1">
-      <c r="A112" s="3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="1">
         <v>45872.91292269676</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>20</v>
@@ -6635,39 +6629,39 @@
         <v>103</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" hidden="1">
-      <c r="A113" s="3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="1">
         <v>45881.569802060185</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>96</v>
@@ -6676,118 +6670,118 @@
         <v>103</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" hidden="1">
-      <c r="A114" s="3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="1">
         <v>45871.74904130787</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" hidden="1">
-      <c r="A115" s="3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="1">
         <v>45881.57066960648</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" hidden="1">
-      <c r="A116" s="3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="1">
         <v>45870.60357907407</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>20</v>
@@ -6796,30 +6790,30 @@
         <v>82</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" hidden="1">
-      <c r="A117" s="3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="1">
         <v>45881.56973765046</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>101</v>
@@ -6828,7 +6822,7 @@
         <v>18</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>20</v>
@@ -6840,36 +6834,36 @@
         <v>103</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" hidden="1">
-      <c r="A118" s="3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="1">
         <v>45868.688675150464</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>20</v>
@@ -6878,7 +6872,7 @@
         <v>82</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>110</v>
@@ -6887,71 +6881,71 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" hidden="1">
-      <c r="A119" s="3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="1">
         <v>45881.569275208334</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" hidden="1">
-      <c r="A120" s="3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="1">
         <v>45872.718947511574</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>20</v>
@@ -6960,39 +6954,39 @@
         <v>82</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" hidden="1">
-      <c r="A121" s="3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="1">
         <v>45881.56850517361</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>20</v>
@@ -7001,10 +6995,10 @@
         <v>82</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>24</v>

--- a/FUTURE_USERS_LOOK_HERE/tutors.xlsx
+++ b/FUTURE_USERS_LOOK_HERE/tutors.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$M$153</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$M$152</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="506">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1443,73 +1443,73 @@
     <t>Luke Chandler</t>
   </si>
   <si>
+    <t>26025@dlshs.org</t>
+  </si>
+  <si>
+    <t>Luke Schroeder</t>
+  </si>
+  <si>
+    <t>26036@dlshs.org</t>
+  </si>
+  <si>
+    <t>Marek Turley</t>
+  </si>
+  <si>
+    <t>26011@dlshs.org</t>
+  </si>
+  <si>
+    <t>Mateo Makhoul</t>
+  </si>
+  <si>
+    <t>matteusowens@gmail.com</t>
+  </si>
+  <si>
+    <t>Matteus Owens</t>
+  </si>
+  <si>
+    <t>25942@dlshs.org</t>
+  </si>
+  <si>
+    <t>25883@dlshs.org</t>
+  </si>
+  <si>
+    <t>Matthew Levy</t>
+  </si>
+  <si>
+    <t>Algebra 1 H</t>
+  </si>
+  <si>
+    <t>25924@dlshs.org</t>
+  </si>
+  <si>
+    <t>Matthew McClure</t>
+  </si>
+  <si>
+    <t>Algebra 1, Algebra 1 H, Algebra 2 W/ Trig, Algebra 2 W/ Trig H</t>
+  </si>
+  <si>
+    <t>Spanish 2, Spanish 2 H</t>
+  </si>
+  <si>
+    <t>26076@dlshs.org</t>
+  </si>
+  <si>
+    <t>Parker Lee</t>
+  </si>
+  <si>
+    <t>25877@dlshs.org</t>
+  </si>
+  <si>
+    <t>Russell Tom</t>
+  </si>
+  <si>
+    <t>25849@dlshs.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santino Voltattorni </t>
+  </si>
+  <si>
     <t>26026@dlshs.org</t>
-  </si>
-  <si>
-    <t>Luke Schroeder</t>
-  </si>
-  <si>
-    <t>26025@dlshs.org</t>
-  </si>
-  <si>
-    <t>26036@dlshs.org</t>
-  </si>
-  <si>
-    <t>Marek Turley</t>
-  </si>
-  <si>
-    <t>26011@dlshs.org</t>
-  </si>
-  <si>
-    <t>Mateo Makhoul</t>
-  </si>
-  <si>
-    <t>matteusowens@gmail.com</t>
-  </si>
-  <si>
-    <t>Matteus Owens</t>
-  </si>
-  <si>
-    <t>25942@dlshs.org</t>
-  </si>
-  <si>
-    <t>25883@dlshs.org</t>
-  </si>
-  <si>
-    <t>Matthew Levy</t>
-  </si>
-  <si>
-    <t>Algebra 1 H</t>
-  </si>
-  <si>
-    <t>25924@dlshs.org</t>
-  </si>
-  <si>
-    <t>Matthew McClure</t>
-  </si>
-  <si>
-    <t>Algebra 1, Algebra 1 H, Algebra 2 W/ Trig, Algebra 2 W/ Trig H</t>
-  </si>
-  <si>
-    <t>Spanish 2, Spanish 2 H</t>
-  </si>
-  <si>
-    <t>26076@dlshs.org</t>
-  </si>
-  <si>
-    <t>Parker Lee</t>
-  </si>
-  <si>
-    <t>25877@dlshs.org</t>
-  </si>
-  <si>
-    <t>Russell Tom</t>
-  </si>
-  <si>
-    <t>25849@dlshs.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santino Voltattorni </t>
   </si>
   <si>
     <t>Sebastian Sera-Tacorda</t>
@@ -1694,10 +1694,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1705,13 +1705,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1719,13 +1719,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1839,8 +1839,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M153" displayName="Form_Responses" name="Form_Responses" id="1">
-  <autoFilter ref="$A$1:$M$153"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M152" displayName="Form_Responses" name="Form_Responses" id="1">
+  <autoFilter ref="$A$1:$M$152"/>
   <tableColumns count="13">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -7396,13 +7396,13 @@
     </row>
     <row r="135">
       <c r="A135" s="9">
-        <v>45881.34716605324</v>
+        <v>45881.568605231485</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C135" s="10">
-        <v>26026.0</v>
+        <v>26025.0</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>477</v>
@@ -7417,7 +7417,7 @@
         <v>16</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>468</v>
+        <v>300</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>18</v>
@@ -7437,22 +7437,22 @@
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>45881.568605231485</v>
+        <v>45881.57144384259</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>478</v>
       </c>
       <c r="C136" s="7">
-        <v>26025.0</v>
+        <v>26036.0</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E136" s="7">
         <v>10.0</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>251</v>
+        <v>445</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>16</v>
@@ -7463,14 +7463,11 @@
       <c r="I136" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J136" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="K136" s="7" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="M136" s="8" t="b">
         <v>0</v>
@@ -7478,22 +7475,22 @@
     </row>
     <row r="137">
       <c r="A137" s="9">
-        <v>45881.57144384259</v>
+        <v>45881.56892130787</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C137" s="10">
-        <v>26036.0</v>
+        <v>26011.0</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E137" s="10">
         <v>10.0</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>445</v>
+        <v>251</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>16</v>
@@ -7504,11 +7501,14 @@
       <c r="I137" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="J137" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="K137" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M137" s="11" t="b">
         <v>0</v>
@@ -7516,40 +7516,40 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>45881.56892130787</v>
+        <v>45870.816943275466</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C138" s="7">
-        <v>26011.0</v>
+        <v>25942.0</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E138" s="7">
         <v>10.0</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>300</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M138" s="8" t="b">
         <v>0</v>
@@ -7557,22 +7557,22 @@
     </row>
     <row r="139">
       <c r="A139" s="9">
-        <v>45870.816943275466</v>
+        <v>45881.56942966435</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C139" s="10">
         <v>25942.0</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E139" s="10">
         <v>10.0</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>58</v>
@@ -7598,40 +7598,40 @@
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>45881.56942966435</v>
+        <v>45868.73771728009</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>485</v>
       </c>
       <c r="C140" s="7">
-        <v>25942.0</v>
+        <v>25883.0</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E140" s="7">
         <v>10.0</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M140" s="8" t="b">
         <v>0</v>
@@ -7639,22 +7639,22 @@
     </row>
     <row r="141">
       <c r="A141" s="9">
-        <v>45868.73771728009</v>
+        <v>45881.57187789352</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C141" s="10">
-        <v>25883.0</v>
+        <v>25924.0</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E141" s="10">
         <v>10.0</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>16</v>
@@ -7663,7 +7663,7 @@
         <v>468</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>18</v>
+        <v>491</v>
       </c>
       <c r="J141" s="10" t="s">
         <v>279</v>
@@ -7680,22 +7680,22 @@
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>45881.57187789352</v>
+        <v>45868.68812925926</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C142" s="7">
-        <v>25924.0</v>
+        <v>26076.0</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E142" s="7">
         <v>10.0</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>16</v>
@@ -7704,10 +7704,10 @@
         <v>468</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>492</v>
+        <v>18</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="K142" s="7" t="s">
         <v>356</v>
@@ -7721,22 +7721,22 @@
     </row>
     <row r="143">
       <c r="A143" s="9">
-        <v>45868.68812925926</v>
+        <v>45881.56918805555</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C143" s="10">
         <v>26076.0</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E143" s="10">
         <v>10.0</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>16</v>
@@ -7762,40 +7762,40 @@
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>45881.56918805555</v>
+        <v>45881.53690461806</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C144" s="7">
-        <v>26076.0</v>
+        <v>25877.0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E144" s="7">
         <v>10.0</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>488</v>
+        <v>92</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>468</v>
+        <v>300</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>356</v>
+        <v>94</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M144" s="8" t="b">
         <v>0</v>
@@ -7803,16 +7803,16 @@
     </row>
     <row r="145">
       <c r="A145" s="9">
-        <v>45881.53690461806</v>
+        <v>45881.568355868054</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C145" s="10">
         <v>25877.0</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E145" s="10">
         <v>10.0</v>
@@ -7844,22 +7844,22 @@
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>45881.568355868054</v>
+        <v>45881.57173548611</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C146" s="7">
-        <v>25877.0</v>
+        <v>25849.0</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E146" s="7">
         <v>10.0</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>16</v>
@@ -7871,13 +7871,13 @@
         <v>18</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="M146" s="8" t="b">
         <v>0</v>
@@ -7885,22 +7885,22 @@
     </row>
     <row r="147">
       <c r="A147" s="9">
-        <v>45881.57173548611</v>
+        <v>45868.882647314815</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C147" s="10">
-        <v>25849.0</v>
+        <v>26026.0</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E147" s="10">
         <v>10.0</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>16</v>
@@ -7909,16 +7909,16 @@
         <v>300</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="M147" s="11" t="b">
         <v>0</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>45868.882647314815</v>
+        <v>45881.57005327546</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="C148" s="7">
         <v>26026.0</v>
@@ -7944,22 +7944,22 @@
         <v>49</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>88</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M148" s="8" t="b">
         <v>0</v>
@@ -7967,40 +7967,40 @@
     </row>
     <row r="149">
       <c r="A149" s="9">
-        <v>45881.57005327546</v>
+        <v>45881.56849725694</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="C149" s="10">
-        <v>26026.0</v>
+        <v>25887.0</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E149" s="10">
         <v>10.0</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K149" s="10" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M149" s="11" t="b">
         <v>0</v>
@@ -8008,16 +8008,16 @@
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>45881.56849725694</v>
+        <v>45872.73297700231</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C150" s="7">
-        <v>25887.0</v>
+        <v>25958.0</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E150" s="7">
         <v>10.0</v>
@@ -8029,10 +8029,10 @@
         <v>16</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>76</v>
@@ -8041,7 +8041,7 @@
         <v>155</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="M150" s="8" t="b">
         <v>0</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="151">
       <c r="A151" s="9">
-        <v>45872.73297700231</v>
+        <v>45881.569902083334</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>502</v>
@@ -8082,91 +8082,50 @@
         <v>155</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>413</v>
+        <v>100</v>
       </c>
       <c r="M151" s="11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="6">
-        <v>45881.569902083334</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C152" s="7">
-        <v>25958.0</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E152" s="7">
+      <c r="A152" s="12">
+        <v>45868.684721909725</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C152" s="13">
+        <v>25831.0</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E152" s="13">
         <v>10.0</v>
       </c>
-      <c r="F152" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="7" t="s">
+      <c r="F152" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H152" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I152" s="7" t="s">
+      <c r="I152" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J152" s="7" t="s">
+      <c r="J152" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K152" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L152" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M152" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="12">
-        <v>45868.684721909725</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C153" s="13">
-        <v>25831.0</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="E153" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J153" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K153" s="13" t="s">
+      <c r="K152" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="L153" s="13" t="s">
+      <c r="L152" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="M153" s="14" t="b">
+      <c r="M152" s="14" t="b">
         <v>0</v>
       </c>
     </row>
